--- a/work.xlsx
+++ b/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">- all -</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum - Time worked</t>
+    <t xml:space="preserve">Sum - Time worked*</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -60,7 +60,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,11 +95,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -222,13 +217,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -253,7 +248,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,27 +264,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,7 +292,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,12 +304,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Corner" xfId="20"/>
-    <cellStyle name="Pivot Table Value" xfId="21"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
     <cellStyle name="Pivot Table Field" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -326,13 +321,14 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.333333333333333" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.361111111099537" count="7">
         <n v="0"/>
         <n v="0.166666666666667"/>
         <n v="0.229166666666667"/>
         <n v="0.284722222222222"/>
         <n v="0.3125"/>
         <n v="0.333333333333333"/>
+        <n v="0.361111111099537"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Week" numFmtId="0">
@@ -373,8 +369,8 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2144,13 +2140,14 @@
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
@@ -2179,13 +2176,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2251,6 +2248,17 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>45210.3888888889</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>45210.75</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>45211.3888888889</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>45211.3888888889</v>
       </c>
     </row>
   </sheetData>
@@ -2271,15 +2279,16 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2300,13 +2309,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A2)</f>
+        <f aca="false">WEEKNUM(Times!A2,1)</f>
         <v>40</v>
       </c>
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>-45208.8958333333</v>
+        <v>1.85416666665509</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2315,7 +2324,7 @@
         <v>0.229166666666667</v>
       </c>
       <c r="B3" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A3)</f>
+        <f aca="false">WEEKNUM(Times!A3,1)</f>
         <v>40</v>
       </c>
     </row>
@@ -2325,7 +2334,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="B4" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A4)</f>
+        <f aca="false">WEEKNUM(Times!A4,1)</f>
         <v>40</v>
       </c>
     </row>
@@ -2335,7 +2344,7 @@
         <v>0.166666666666667</v>
       </c>
       <c r="B5" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A5)</f>
+        <f aca="false">WEEKNUM(Times!A5,1)</f>
         <v>40</v>
       </c>
     </row>
@@ -2345,7 +2354,7 @@
         <v>0.3125</v>
       </c>
       <c r="B6" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A6)</f>
+        <f aca="false">WEEKNUM(Times!A6,1)</f>
         <v>41</v>
       </c>
     </row>
@@ -2355,28 +2364,28 @@
         <v>0.284722222222222</v>
       </c>
       <c r="B7" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A7)</f>
+        <f aca="false">WEEKNUM(Times!A7,1)</f>
         <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
         <f aca="false">Times!B8-Times!A8</f>
-        <v>-45210.3888888889</v>
+        <v>0.361111111099537</v>
       </c>
       <c r="B8" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A8)</f>
+        <f aca="false">WEEKNUM(Times!A8,1)</f>
         <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="4" t="n">
         <f aca="false">Times!B9-Times!A9</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A9)</f>
-        <v>52</v>
+        <f aca="false">WEEKNUM(Times!A9,1)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2385,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A10)</f>
+        <f aca="false">WEEKNUM(Times!A10,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2395,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A11)</f>
+        <f aca="false">WEEKNUM(Times!A11,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2405,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A12)</f>
+        <f aca="false">WEEKNUM(Times!A12,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2415,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A13)</f>
+        <f aca="false">WEEKNUM(Times!A13,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2425,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A14)</f>
+        <f aca="false">WEEKNUM(Times!A14,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2435,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A15)</f>
+        <f aca="false">WEEKNUM(Times!A15,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2445,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A16)</f>
+        <f aca="false">WEEKNUM(Times!A16,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2455,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A17)</f>
+        <f aca="false">WEEKNUM(Times!A17,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2465,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A18)</f>
+        <f aca="false">WEEKNUM(Times!A18,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2475,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A19)</f>
+        <f aca="false">WEEKNUM(Times!A19,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2485,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A20)</f>
+        <f aca="false">WEEKNUM(Times!A20,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2495,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A21)</f>
+        <f aca="false">WEEKNUM(Times!A21,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2505,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A22)</f>
+        <f aca="false">WEEKNUM(Times!A22,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2515,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A23)</f>
+        <f aca="false">WEEKNUM(Times!A23,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2525,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A24)</f>
+        <f aca="false">WEEKNUM(Times!A24,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2535,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A25)</f>
+        <f aca="false">WEEKNUM(Times!A25,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2545,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A26)</f>
+        <f aca="false">WEEKNUM(Times!A26,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2555,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A27)</f>
+        <f aca="false">WEEKNUM(Times!A27,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2565,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A28)</f>
+        <f aca="false">WEEKNUM(Times!A28,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2575,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A29)</f>
+        <f aca="false">WEEKNUM(Times!A29,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2585,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A30)</f>
+        <f aca="false">WEEKNUM(Times!A30,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2595,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A31)</f>
+        <f aca="false">WEEKNUM(Times!A31,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2605,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A32)</f>
+        <f aca="false">WEEKNUM(Times!A32,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2615,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A33)</f>
+        <f aca="false">WEEKNUM(Times!A33,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2625,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A34)</f>
+        <f aca="false">WEEKNUM(Times!A34,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2635,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A35)</f>
+        <f aca="false">WEEKNUM(Times!A35,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2645,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A36)</f>
+        <f aca="false">WEEKNUM(Times!A36,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2655,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A37)</f>
+        <f aca="false">WEEKNUM(Times!A37,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2665,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A38)</f>
+        <f aca="false">WEEKNUM(Times!A38,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2675,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A39)</f>
+        <f aca="false">WEEKNUM(Times!A39,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2685,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A40)</f>
+        <f aca="false">WEEKNUM(Times!A40,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2695,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A41)</f>
+        <f aca="false">WEEKNUM(Times!A41,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2705,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A42)</f>
+        <f aca="false">WEEKNUM(Times!A42,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2715,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A43)</f>
+        <f aca="false">WEEKNUM(Times!A43,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2725,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A44)</f>
+        <f aca="false">WEEKNUM(Times!A44,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2735,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A45)</f>
+        <f aca="false">WEEKNUM(Times!A45,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2745,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A46)</f>
+        <f aca="false">WEEKNUM(Times!A46,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2755,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A47)</f>
+        <f aca="false">WEEKNUM(Times!A47,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2765,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A48)</f>
+        <f aca="false">WEEKNUM(Times!A48,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2775,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A49)</f>
+        <f aca="false">WEEKNUM(Times!A49,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2785,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A50)</f>
+        <f aca="false">WEEKNUM(Times!A50,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2795,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A51)</f>
+        <f aca="false">WEEKNUM(Times!A51,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2805,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A52)</f>
+        <f aca="false">WEEKNUM(Times!A52,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2815,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A53)</f>
+        <f aca="false">WEEKNUM(Times!A53,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2825,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A54)</f>
+        <f aca="false">WEEKNUM(Times!A54,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2835,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A55)</f>
+        <f aca="false">WEEKNUM(Times!A55,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2845,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A56)</f>
+        <f aca="false">WEEKNUM(Times!A56,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2855,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A57)</f>
+        <f aca="false">WEEKNUM(Times!A57,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2865,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A58)</f>
+        <f aca="false">WEEKNUM(Times!A58,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2875,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A59)</f>
+        <f aca="false">WEEKNUM(Times!A59,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2885,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A60)</f>
+        <f aca="false">WEEKNUM(Times!A60,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2895,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A61)</f>
+        <f aca="false">WEEKNUM(Times!A61,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2905,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A62)</f>
+        <f aca="false">WEEKNUM(Times!A62,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2915,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A63)</f>
+        <f aca="false">WEEKNUM(Times!A63,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2925,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A64)</f>
+        <f aca="false">WEEKNUM(Times!A64,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2935,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A65)</f>
+        <f aca="false">WEEKNUM(Times!A65,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2945,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A66)</f>
+        <f aca="false">WEEKNUM(Times!A66,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2955,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A67)</f>
+        <f aca="false">WEEKNUM(Times!A67,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2965,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A68)</f>
+        <f aca="false">WEEKNUM(Times!A68,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2975,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A69)</f>
+        <f aca="false">WEEKNUM(Times!A69,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2985,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A70)</f>
+        <f aca="false">WEEKNUM(Times!A70,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -2995,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A71)</f>
+        <f aca="false">WEEKNUM(Times!A71,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3005,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A72)</f>
+        <f aca="false">WEEKNUM(Times!A72,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3015,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A73)</f>
+        <f aca="false">WEEKNUM(Times!A73,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3025,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A74)</f>
+        <f aca="false">WEEKNUM(Times!A74,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3035,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A75)</f>
+        <f aca="false">WEEKNUM(Times!A75,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3045,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A76)</f>
+        <f aca="false">WEEKNUM(Times!A76,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3055,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A77)</f>
+        <f aca="false">WEEKNUM(Times!A77,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3065,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A78)</f>
+        <f aca="false">WEEKNUM(Times!A78,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3075,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A79)</f>
+        <f aca="false">WEEKNUM(Times!A79,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3085,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A80)</f>
+        <f aca="false">WEEKNUM(Times!A80,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3095,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A81)</f>
+        <f aca="false">WEEKNUM(Times!A81,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3105,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A82)</f>
+        <f aca="false">WEEKNUM(Times!A82,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3115,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A83)</f>
+        <f aca="false">WEEKNUM(Times!A83,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3125,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A84)</f>
+        <f aca="false">WEEKNUM(Times!A84,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3135,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A85)</f>
+        <f aca="false">WEEKNUM(Times!A85,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3145,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A86)</f>
+        <f aca="false">WEEKNUM(Times!A86,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3155,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A87)</f>
+        <f aca="false">WEEKNUM(Times!A87,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3165,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A88)</f>
+        <f aca="false">WEEKNUM(Times!A88,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3175,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A89)</f>
+        <f aca="false">WEEKNUM(Times!A89,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3185,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A90)</f>
+        <f aca="false">WEEKNUM(Times!A90,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3195,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="B91" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A91)</f>
+        <f aca="false">WEEKNUM(Times!A91,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3205,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A92)</f>
+        <f aca="false">WEEKNUM(Times!A92,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3215,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A93)</f>
+        <f aca="false">WEEKNUM(Times!A93,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3225,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A94)</f>
+        <f aca="false">WEEKNUM(Times!A94,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3235,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A95)</f>
+        <f aca="false">WEEKNUM(Times!A95,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3245,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A96)</f>
+        <f aca="false">WEEKNUM(Times!A96,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3255,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A97)</f>
+        <f aca="false">WEEKNUM(Times!A97,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3265,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A98)</f>
+        <f aca="false">WEEKNUM(Times!A98,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3275,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A99)</f>
+        <f aca="false">WEEKNUM(Times!A99,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3285,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="B100" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A100)</f>
+        <f aca="false">WEEKNUM(Times!A100,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3295,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A101)</f>
+        <f aca="false">WEEKNUM(Times!A101,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3305,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A102)</f>
+        <f aca="false">WEEKNUM(Times!A102,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3315,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A103)</f>
+        <f aca="false">WEEKNUM(Times!A103,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3325,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A104)</f>
+        <f aca="false">WEEKNUM(Times!A104,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3335,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A105)</f>
+        <f aca="false">WEEKNUM(Times!A105,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3345,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A106)</f>
+        <f aca="false">WEEKNUM(Times!A106,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3355,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="B107" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A107)</f>
+        <f aca="false">WEEKNUM(Times!A107,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3365,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A108)</f>
+        <f aca="false">WEEKNUM(Times!A108,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3375,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A109)</f>
+        <f aca="false">WEEKNUM(Times!A109,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3385,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A110)</f>
+        <f aca="false">WEEKNUM(Times!A110,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3395,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A111)</f>
+        <f aca="false">WEEKNUM(Times!A111,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3405,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A112)</f>
+        <f aca="false">WEEKNUM(Times!A112,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3415,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="B113" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A113)</f>
+        <f aca="false">WEEKNUM(Times!A113,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3425,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A114)</f>
+        <f aca="false">WEEKNUM(Times!A114,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3435,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A115)</f>
+        <f aca="false">WEEKNUM(Times!A115,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3445,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="B116" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A116)</f>
+        <f aca="false">WEEKNUM(Times!A116,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3455,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="B117" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A117)</f>
+        <f aca="false">WEEKNUM(Times!A117,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3465,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A118)</f>
+        <f aca="false">WEEKNUM(Times!A118,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3475,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A119)</f>
+        <f aca="false">WEEKNUM(Times!A119,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3485,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A120)</f>
+        <f aca="false">WEEKNUM(Times!A120,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3495,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A121)</f>
+        <f aca="false">WEEKNUM(Times!A121,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3505,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A122)</f>
+        <f aca="false">WEEKNUM(Times!A122,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3515,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A123)</f>
+        <f aca="false">WEEKNUM(Times!A123,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3525,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="B124" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A124)</f>
+        <f aca="false">WEEKNUM(Times!A124,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3535,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A125)</f>
+        <f aca="false">WEEKNUM(Times!A125,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3545,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A126)</f>
+        <f aca="false">WEEKNUM(Times!A126,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3555,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A127)</f>
+        <f aca="false">WEEKNUM(Times!A127,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3565,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A128)</f>
+        <f aca="false">WEEKNUM(Times!A128,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3575,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="B129" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A129)</f>
+        <f aca="false">WEEKNUM(Times!A129,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3585,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A130)</f>
+        <f aca="false">WEEKNUM(Times!A130,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3595,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A131)</f>
+        <f aca="false">WEEKNUM(Times!A131,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3605,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A132)</f>
+        <f aca="false">WEEKNUM(Times!A132,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3615,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A133)</f>
+        <f aca="false">WEEKNUM(Times!A133,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3625,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A134)</f>
+        <f aca="false">WEEKNUM(Times!A134,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3635,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A135)</f>
+        <f aca="false">WEEKNUM(Times!A135,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3645,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A136)</f>
+        <f aca="false">WEEKNUM(Times!A136,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3655,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A137)</f>
+        <f aca="false">WEEKNUM(Times!A137,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3665,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A138)</f>
+        <f aca="false">WEEKNUM(Times!A138,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3675,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="B139" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A139)</f>
+        <f aca="false">WEEKNUM(Times!A139,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3685,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A140)</f>
+        <f aca="false">WEEKNUM(Times!A140,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3695,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A141)</f>
+        <f aca="false">WEEKNUM(Times!A141,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3705,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="B142" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A142)</f>
+        <f aca="false">WEEKNUM(Times!A142,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3715,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A143)</f>
+        <f aca="false">WEEKNUM(Times!A143,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3725,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="B144" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A144)</f>
+        <f aca="false">WEEKNUM(Times!A144,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3735,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="B145" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A145)</f>
+        <f aca="false">WEEKNUM(Times!A145,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3745,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A146)</f>
+        <f aca="false">WEEKNUM(Times!A146,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3755,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="B147" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A147)</f>
+        <f aca="false">WEEKNUM(Times!A147,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3765,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A148)</f>
+        <f aca="false">WEEKNUM(Times!A148,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3775,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="B149" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A149)</f>
+        <f aca="false">WEEKNUM(Times!A149,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3785,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A150)</f>
+        <f aca="false">WEEKNUM(Times!A150,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3795,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A151)</f>
+        <f aca="false">WEEKNUM(Times!A151,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3805,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="B152" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A152)</f>
+        <f aca="false">WEEKNUM(Times!A152,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3815,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A153)</f>
+        <f aca="false">WEEKNUM(Times!A153,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3825,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="B154" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A154)</f>
+        <f aca="false">WEEKNUM(Times!A154,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3835,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="B155" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A155)</f>
+        <f aca="false">WEEKNUM(Times!A155,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3845,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A156)</f>
+        <f aca="false">WEEKNUM(Times!A156,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3855,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="B157" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A157)</f>
+        <f aca="false">WEEKNUM(Times!A157,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3865,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A158)</f>
+        <f aca="false">WEEKNUM(Times!A158,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3875,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A159)</f>
+        <f aca="false">WEEKNUM(Times!A159,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3885,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A160)</f>
+        <f aca="false">WEEKNUM(Times!A160,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3895,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="B161" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A161)</f>
+        <f aca="false">WEEKNUM(Times!A161,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3905,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A162)</f>
+        <f aca="false">WEEKNUM(Times!A162,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3915,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="B163" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A163)</f>
+        <f aca="false">WEEKNUM(Times!A163,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3925,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="B164" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A164)</f>
+        <f aca="false">WEEKNUM(Times!A164,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3935,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="B165" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A165)</f>
+        <f aca="false">WEEKNUM(Times!A165,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3945,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A166)</f>
+        <f aca="false">WEEKNUM(Times!A166,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3955,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="B167" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A167)</f>
+        <f aca="false">WEEKNUM(Times!A167,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3965,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="B168" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A168)</f>
+        <f aca="false">WEEKNUM(Times!A168,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3975,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="B169" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A169)</f>
+        <f aca="false">WEEKNUM(Times!A169,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3985,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="B170" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A170)</f>
+        <f aca="false">WEEKNUM(Times!A170,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -3995,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="B171" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A171)</f>
+        <f aca="false">WEEKNUM(Times!A171,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4005,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A172)</f>
+        <f aca="false">WEEKNUM(Times!A172,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4015,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="B173" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A173)</f>
+        <f aca="false">WEEKNUM(Times!A173,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4025,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A174)</f>
+        <f aca="false">WEEKNUM(Times!A174,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4035,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="B175" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A175)</f>
+        <f aca="false">WEEKNUM(Times!A175,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4045,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A176)</f>
+        <f aca="false">WEEKNUM(Times!A176,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4055,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A177)</f>
+        <f aca="false">WEEKNUM(Times!A177,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4065,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="B178" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A178)</f>
+        <f aca="false">WEEKNUM(Times!A178,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4075,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="B179" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A179)</f>
+        <f aca="false">WEEKNUM(Times!A179,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4085,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A180)</f>
+        <f aca="false">WEEKNUM(Times!A180,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4095,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A181)</f>
+        <f aca="false">WEEKNUM(Times!A181,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4105,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A182)</f>
+        <f aca="false">WEEKNUM(Times!A182,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4115,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="B183" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A183)</f>
+        <f aca="false">WEEKNUM(Times!A183,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4125,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="B184" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A184)</f>
+        <f aca="false">WEEKNUM(Times!A184,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4135,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="B185" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A185)</f>
+        <f aca="false">WEEKNUM(Times!A185,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4145,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="B186" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A186)</f>
+        <f aca="false">WEEKNUM(Times!A186,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4155,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="B187" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A187)</f>
+        <f aca="false">WEEKNUM(Times!A187,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4165,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="B188" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A188)</f>
+        <f aca="false">WEEKNUM(Times!A188,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4175,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="B189" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A189)</f>
+        <f aca="false">WEEKNUM(Times!A189,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4185,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A190)</f>
+        <f aca="false">WEEKNUM(Times!A190,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4195,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A191)</f>
+        <f aca="false">WEEKNUM(Times!A191,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4205,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="B192" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A192)</f>
+        <f aca="false">WEEKNUM(Times!A192,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4215,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="B193" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A193)</f>
+        <f aca="false">WEEKNUM(Times!A193,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4225,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="B194" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A194)</f>
+        <f aca="false">WEEKNUM(Times!A194,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4235,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A195)</f>
+        <f aca="false">WEEKNUM(Times!A195,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4245,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A196)</f>
+        <f aca="false">WEEKNUM(Times!A196,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4255,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A197)</f>
+        <f aca="false">WEEKNUM(Times!A197,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4265,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="B198" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A198)</f>
+        <f aca="false">WEEKNUM(Times!A198,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4275,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="B199" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A199)</f>
+        <f aca="false">WEEKNUM(Times!A199,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4285,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="B200" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A200)</f>
+        <f aca="false">WEEKNUM(Times!A200,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4295,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="B201" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A201)</f>
+        <f aca="false">WEEKNUM(Times!A201,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4305,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="B202" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A202)</f>
+        <f aca="false">WEEKNUM(Times!A202,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4315,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="B203" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A203)</f>
+        <f aca="false">WEEKNUM(Times!A203,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4325,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="B204" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A204)</f>
+        <f aca="false">WEEKNUM(Times!A204,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4335,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="B205" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A205)</f>
+        <f aca="false">WEEKNUM(Times!A205,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4345,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A206)</f>
+        <f aca="false">WEEKNUM(Times!A206,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4355,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="B207" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A207)</f>
+        <f aca="false">WEEKNUM(Times!A207,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4365,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="B208" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A208)</f>
+        <f aca="false">WEEKNUM(Times!A208,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4375,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="B209" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A209)</f>
+        <f aca="false">WEEKNUM(Times!A209,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4385,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="B210" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A210)</f>
+        <f aca="false">WEEKNUM(Times!A210,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4395,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="B211" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A211)</f>
+        <f aca="false">WEEKNUM(Times!A211,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4405,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="B212" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A212)</f>
+        <f aca="false">WEEKNUM(Times!A212,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4415,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A213)</f>
+        <f aca="false">WEEKNUM(Times!A213,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4425,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="B214" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A214)</f>
+        <f aca="false">WEEKNUM(Times!A214,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4435,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A215)</f>
+        <f aca="false">WEEKNUM(Times!A215,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4445,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B216" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A216)</f>
+        <f aca="false">WEEKNUM(Times!A216,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4455,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="B217" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A217)</f>
+        <f aca="false">WEEKNUM(Times!A217,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4465,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="B218" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A218)</f>
+        <f aca="false">WEEKNUM(Times!A218,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4475,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="B219" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A219)</f>
+        <f aca="false">WEEKNUM(Times!A219,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4485,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="B220" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A220)</f>
+        <f aca="false">WEEKNUM(Times!A220,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4495,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A221)</f>
+        <f aca="false">WEEKNUM(Times!A221,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4505,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="B222" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A222)</f>
+        <f aca="false">WEEKNUM(Times!A222,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4515,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="B223" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A223)</f>
+        <f aca="false">WEEKNUM(Times!A223,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4525,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="B224" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A224)</f>
+        <f aca="false">WEEKNUM(Times!A224,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4535,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="B225" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A225)</f>
+        <f aca="false">WEEKNUM(Times!A225,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4545,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="B226" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A226)</f>
+        <f aca="false">WEEKNUM(Times!A226,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4555,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="B227" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A227)</f>
+        <f aca="false">WEEKNUM(Times!A227,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4565,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A228)</f>
+        <f aca="false">WEEKNUM(Times!A228,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4575,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A229)</f>
+        <f aca="false">WEEKNUM(Times!A229,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4585,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A230)</f>
+        <f aca="false">WEEKNUM(Times!A230,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4595,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="B231" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A231)</f>
+        <f aca="false">WEEKNUM(Times!A231,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4605,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="B232" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A232)</f>
+        <f aca="false">WEEKNUM(Times!A232,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4615,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="B233" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A233)</f>
+        <f aca="false">WEEKNUM(Times!A233,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4625,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="B234" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A234)</f>
+        <f aca="false">WEEKNUM(Times!A234,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4635,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="B235" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A235)</f>
+        <f aca="false">WEEKNUM(Times!A235,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4645,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="B236" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A236)</f>
+        <f aca="false">WEEKNUM(Times!A236,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4655,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="B237" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A237)</f>
+        <f aca="false">WEEKNUM(Times!A237,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4665,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="B238" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A238)</f>
+        <f aca="false">WEEKNUM(Times!A238,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4675,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="B239" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A239)</f>
+        <f aca="false">WEEKNUM(Times!A239,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4685,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A240)</f>
+        <f aca="false">WEEKNUM(Times!A240,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4695,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="B241" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A241)</f>
+        <f aca="false">WEEKNUM(Times!A241,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4705,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="B242" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A242)</f>
+        <f aca="false">WEEKNUM(Times!A242,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4715,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="B243" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A243)</f>
+        <f aca="false">WEEKNUM(Times!A243,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4725,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="B244" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A244)</f>
+        <f aca="false">WEEKNUM(Times!A244,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4735,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="B245" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A245)</f>
+        <f aca="false">WEEKNUM(Times!A245,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4745,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A246)</f>
+        <f aca="false">WEEKNUM(Times!A246,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4755,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="B247" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A247)</f>
+        <f aca="false">WEEKNUM(Times!A247,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4765,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="B248" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A248)</f>
+        <f aca="false">WEEKNUM(Times!A248,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4775,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="B249" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A249)</f>
+        <f aca="false">WEEKNUM(Times!A249,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4785,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="B250" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A250)</f>
+        <f aca="false">WEEKNUM(Times!A250,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4795,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="B251" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A251)</f>
+        <f aca="false">WEEKNUM(Times!A251,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4805,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="B252" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A252)</f>
+        <f aca="false">WEEKNUM(Times!A252,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4815,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="B253" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A253)</f>
+        <f aca="false">WEEKNUM(Times!A253,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4825,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A254)</f>
+        <f aca="false">WEEKNUM(Times!A254,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4835,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="B255" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A255)</f>
+        <f aca="false">WEEKNUM(Times!A255,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4845,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="B256" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A256)</f>
+        <f aca="false">WEEKNUM(Times!A256,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4855,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="B257" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A257)</f>
+        <f aca="false">WEEKNUM(Times!A257,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4865,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="B258" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A258)</f>
+        <f aca="false">WEEKNUM(Times!A258,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4875,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="B259" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A259)</f>
+        <f aca="false">WEEKNUM(Times!A259,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4885,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="B260" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A260)</f>
+        <f aca="false">WEEKNUM(Times!A260,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4895,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="B261" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A261)</f>
+        <f aca="false">WEEKNUM(Times!A261,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4905,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A262)</f>
+        <f aca="false">WEEKNUM(Times!A262,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4915,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="B263" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A263)</f>
+        <f aca="false">WEEKNUM(Times!A263,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4925,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="B264" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A264)</f>
+        <f aca="false">WEEKNUM(Times!A264,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4935,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="B265" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A265)</f>
+        <f aca="false">WEEKNUM(Times!A265,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4945,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="B266" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A266)</f>
+        <f aca="false">WEEKNUM(Times!A266,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4955,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="B267" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A267)</f>
+        <f aca="false">WEEKNUM(Times!A267,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4965,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="B268" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A268)</f>
+        <f aca="false">WEEKNUM(Times!A268,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4975,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="B269" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A269)</f>
+        <f aca="false">WEEKNUM(Times!A269,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4985,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A270)</f>
+        <f aca="false">WEEKNUM(Times!A270,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -4995,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="B271" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A271)</f>
+        <f aca="false">WEEKNUM(Times!A271,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5005,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="B272" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A272)</f>
+        <f aca="false">WEEKNUM(Times!A272,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5015,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="B273" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A273)</f>
+        <f aca="false">WEEKNUM(Times!A273,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5025,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B274" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A274)</f>
+        <f aca="false">WEEKNUM(Times!A274,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5035,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="B275" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A275)</f>
+        <f aca="false">WEEKNUM(Times!A275,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5045,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="B276" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A276)</f>
+        <f aca="false">WEEKNUM(Times!A276,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5055,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="B277" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A277)</f>
+        <f aca="false">WEEKNUM(Times!A277,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5065,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="B278" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A278)</f>
+        <f aca="false">WEEKNUM(Times!A278,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5075,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A279)</f>
+        <f aca="false">WEEKNUM(Times!A279,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5085,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="B280" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A280)</f>
+        <f aca="false">WEEKNUM(Times!A280,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5095,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="B281" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A281)</f>
+        <f aca="false">WEEKNUM(Times!A281,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5105,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="B282" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A282)</f>
+        <f aca="false">WEEKNUM(Times!A282,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5115,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="B283" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A283)</f>
+        <f aca="false">WEEKNUM(Times!A283,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5125,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A284)</f>
+        <f aca="false">WEEKNUM(Times!A284,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5135,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="B285" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A285)</f>
+        <f aca="false">WEEKNUM(Times!A285,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5145,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="B286" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A286)</f>
+        <f aca="false">WEEKNUM(Times!A286,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5155,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="B287" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A287)</f>
+        <f aca="false">WEEKNUM(Times!A287,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5165,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="B288" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A288)</f>
+        <f aca="false">WEEKNUM(Times!A288,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5175,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="B289" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A289)</f>
+        <f aca="false">WEEKNUM(Times!A289,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5185,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A290)</f>
+        <f aca="false">WEEKNUM(Times!A290,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5195,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="B291" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A291)</f>
+        <f aca="false">WEEKNUM(Times!A291,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5205,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="B292" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A292)</f>
+        <f aca="false">WEEKNUM(Times!A292,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5215,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="B293" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A293)</f>
+        <f aca="false">WEEKNUM(Times!A293,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5225,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="B294" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A294)</f>
+        <f aca="false">WEEKNUM(Times!A294,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5235,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A295)</f>
+        <f aca="false">WEEKNUM(Times!A295,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5245,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="B296" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A296)</f>
+        <f aca="false">WEEKNUM(Times!A296,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5255,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="B297" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A297)</f>
+        <f aca="false">WEEKNUM(Times!A297,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5265,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="B298" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A298)</f>
+        <f aca="false">WEEKNUM(Times!A298,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5275,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="B299" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A299)</f>
+        <f aca="false">WEEKNUM(Times!A299,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5285,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="B300" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A300)</f>
+        <f aca="false">WEEKNUM(Times!A300,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5295,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="B301" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A301)</f>
+        <f aca="false">WEEKNUM(Times!A301,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5305,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="B302" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A302)</f>
+        <f aca="false">WEEKNUM(Times!A302,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5315,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="B303" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A303)</f>
+        <f aca="false">WEEKNUM(Times!A303,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5325,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="B304" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A304)</f>
+        <f aca="false">WEEKNUM(Times!A304,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5335,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="B305" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A305)</f>
+        <f aca="false">WEEKNUM(Times!A305,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5345,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="B306" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A306)</f>
+        <f aca="false">WEEKNUM(Times!A306,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5355,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="B307" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A307)</f>
+        <f aca="false">WEEKNUM(Times!A307,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5365,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="B308" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A308)</f>
+        <f aca="false">WEEKNUM(Times!A308,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5375,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="B309" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A309)</f>
+        <f aca="false">WEEKNUM(Times!A309,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5385,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="B310" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A310)</f>
+        <f aca="false">WEEKNUM(Times!A310,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5395,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A311)</f>
+        <f aca="false">WEEKNUM(Times!A311,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5405,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="B312" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A312)</f>
+        <f aca="false">WEEKNUM(Times!A312,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5415,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="B313" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A313)</f>
+        <f aca="false">WEEKNUM(Times!A313,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5425,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="B314" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A314)</f>
+        <f aca="false">WEEKNUM(Times!A314,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5435,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="B315" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A315)</f>
+        <f aca="false">WEEKNUM(Times!A315,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5445,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="B316" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A316)</f>
+        <f aca="false">WEEKNUM(Times!A316,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5455,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="B317" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A317)</f>
+        <f aca="false">WEEKNUM(Times!A317,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5465,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="B318" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A318)</f>
+        <f aca="false">WEEKNUM(Times!A318,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5475,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="B319" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A319)</f>
+        <f aca="false">WEEKNUM(Times!A319,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5485,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="B320" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A320)</f>
+        <f aca="false">WEEKNUM(Times!A320,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5495,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="B321" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A321)</f>
+        <f aca="false">WEEKNUM(Times!A321,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5505,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A322)</f>
+        <f aca="false">WEEKNUM(Times!A322,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5515,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="B323" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A323)</f>
+        <f aca="false">WEEKNUM(Times!A323,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5525,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="B324" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A324)</f>
+        <f aca="false">WEEKNUM(Times!A324,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5535,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="B325" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A325)</f>
+        <f aca="false">WEEKNUM(Times!A325,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5545,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="B326" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A326)</f>
+        <f aca="false">WEEKNUM(Times!A326,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5555,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="B327" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A327)</f>
+        <f aca="false">WEEKNUM(Times!A327,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5565,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="B328" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A328)</f>
+        <f aca="false">WEEKNUM(Times!A328,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5575,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="B329" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A329)</f>
+        <f aca="false">WEEKNUM(Times!A329,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5585,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A330)</f>
+        <f aca="false">WEEKNUM(Times!A330,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5595,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="B331" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A331)</f>
+        <f aca="false">WEEKNUM(Times!A331,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5605,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="B332" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A332)</f>
+        <f aca="false">WEEKNUM(Times!A332,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5615,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="B333" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A333)</f>
+        <f aca="false">WEEKNUM(Times!A333,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5625,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="B334" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A334)</f>
+        <f aca="false">WEEKNUM(Times!A334,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5635,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="B335" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A335)</f>
+        <f aca="false">WEEKNUM(Times!A335,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5645,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="B336" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A336)</f>
+        <f aca="false">WEEKNUM(Times!A336,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5655,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="B337" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A337)</f>
+        <f aca="false">WEEKNUM(Times!A337,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5665,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="B338" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A338)</f>
+        <f aca="false">WEEKNUM(Times!A338,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5675,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="B339" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A339)</f>
+        <f aca="false">WEEKNUM(Times!A339,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5685,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="B340" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A340)</f>
+        <f aca="false">WEEKNUM(Times!A340,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5695,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="B341" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A341)</f>
+        <f aca="false">WEEKNUM(Times!A341,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5705,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A342)</f>
+        <f aca="false">WEEKNUM(Times!A342,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5715,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="B343" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A343)</f>
+        <f aca="false">WEEKNUM(Times!A343,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5725,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="B344" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A344)</f>
+        <f aca="false">WEEKNUM(Times!A344,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5735,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="B345" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A345)</f>
+        <f aca="false">WEEKNUM(Times!A345,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5745,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="B346" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A346)</f>
+        <f aca="false">WEEKNUM(Times!A346,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5755,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="B347" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A347)</f>
+        <f aca="false">WEEKNUM(Times!A347,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5765,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B348" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A348)</f>
+        <f aca="false">WEEKNUM(Times!A348,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5775,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A349)</f>
+        <f aca="false">WEEKNUM(Times!A349,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5785,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="B350" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A350)</f>
+        <f aca="false">WEEKNUM(Times!A350,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5795,7 +5804,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A351)</f>
+        <f aca="false">WEEKNUM(Times!A351,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5805,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="B352" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A352)</f>
+        <f aca="false">WEEKNUM(Times!A352,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5815,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="B353" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A353)</f>
+        <f aca="false">WEEKNUM(Times!A353,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5825,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="B354" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A354)</f>
+        <f aca="false">WEEKNUM(Times!A354,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5835,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="B355" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A355)</f>
+        <f aca="false">WEEKNUM(Times!A355,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5845,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="B356" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A356)</f>
+        <f aca="false">WEEKNUM(Times!A356,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5855,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="B357" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A357)</f>
+        <f aca="false">WEEKNUM(Times!A357,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5865,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="B358" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A358)</f>
+        <f aca="false">WEEKNUM(Times!A358,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5875,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="B359" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A359)</f>
+        <f aca="false">WEEKNUM(Times!A359,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5885,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A360)</f>
+        <f aca="false">WEEKNUM(Times!A360,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5895,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="B361" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A361)</f>
+        <f aca="false">WEEKNUM(Times!A361,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5905,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="B362" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A362)</f>
+        <f aca="false">WEEKNUM(Times!A362,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5915,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="B363" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A363)</f>
+        <f aca="false">WEEKNUM(Times!A363,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5925,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A364)</f>
+        <f aca="false">WEEKNUM(Times!A364,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5935,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="B365" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A365)</f>
+        <f aca="false">WEEKNUM(Times!A365,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5945,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="B366" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A366)</f>
+        <f aca="false">WEEKNUM(Times!A366,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5955,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="B367" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A367)</f>
+        <f aca="false">WEEKNUM(Times!A367,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5965,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="B368" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A368)</f>
+        <f aca="false">WEEKNUM(Times!A368,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5975,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="B369" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A369)</f>
+        <f aca="false">WEEKNUM(Times!A369,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5985,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="B370" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A370)</f>
+        <f aca="false">WEEKNUM(Times!A370,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -5995,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="B371" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A371)</f>
+        <f aca="false">WEEKNUM(Times!A371,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6005,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="B372" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A372)</f>
+        <f aca="false">WEEKNUM(Times!A372,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6015,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="B373" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A373)</f>
+        <f aca="false">WEEKNUM(Times!A373,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6025,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="B374" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A374)</f>
+        <f aca="false">WEEKNUM(Times!A374,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6035,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="B375" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A375)</f>
+        <f aca="false">WEEKNUM(Times!A375,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6045,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="B376" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A376)</f>
+        <f aca="false">WEEKNUM(Times!A376,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6055,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="B377" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A377)</f>
+        <f aca="false">WEEKNUM(Times!A377,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6065,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="B378" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A378)</f>
+        <f aca="false">WEEKNUM(Times!A378,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6075,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="B379" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A379)</f>
+        <f aca="false">WEEKNUM(Times!A379,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6085,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="B380" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A380)</f>
+        <f aca="false">WEEKNUM(Times!A380,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6095,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="B381" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A381)</f>
+        <f aca="false">WEEKNUM(Times!A381,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6105,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="B382" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A382)</f>
+        <f aca="false">WEEKNUM(Times!A382,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6115,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="B383" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A383)</f>
+        <f aca="false">WEEKNUM(Times!A383,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6125,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="B384" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A384)</f>
+        <f aca="false">WEEKNUM(Times!A384,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6135,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="B385" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A385)</f>
+        <f aca="false">WEEKNUM(Times!A385,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6145,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="B386" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A386)</f>
+        <f aca="false">WEEKNUM(Times!A386,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6155,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="B387" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A387)</f>
+        <f aca="false">WEEKNUM(Times!A387,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6165,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="B388" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A388)</f>
+        <f aca="false">WEEKNUM(Times!A388,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6175,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="B389" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A389)</f>
+        <f aca="false">WEEKNUM(Times!A389,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6185,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="B390" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A390)</f>
+        <f aca="false">WEEKNUM(Times!A390,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6195,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="B391" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A391)</f>
+        <f aca="false">WEEKNUM(Times!A391,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6205,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="B392" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A392)</f>
+        <f aca="false">WEEKNUM(Times!A392,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6215,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="B393" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A393)</f>
+        <f aca="false">WEEKNUM(Times!A393,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6225,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="B394" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A394)</f>
+        <f aca="false">WEEKNUM(Times!A394,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6235,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A395)</f>
+        <f aca="false">WEEKNUM(Times!A395,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6245,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="B396" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A396)</f>
+        <f aca="false">WEEKNUM(Times!A396,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6255,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="B397" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A397)</f>
+        <f aca="false">WEEKNUM(Times!A397,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6265,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="B398" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A398)</f>
+        <f aca="false">WEEKNUM(Times!A398,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6275,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="B399" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A399)</f>
+        <f aca="false">WEEKNUM(Times!A399,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6285,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="B400" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A400)</f>
+        <f aca="false">WEEKNUM(Times!A400,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6295,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="B401" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A401)</f>
+        <f aca="false">WEEKNUM(Times!A401,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6305,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="B402" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A402)</f>
+        <f aca="false">WEEKNUM(Times!A402,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6315,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="B403" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A403)</f>
+        <f aca="false">WEEKNUM(Times!A403,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6325,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="B404" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A404)</f>
+        <f aca="false">WEEKNUM(Times!A404,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6335,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="B405" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A405)</f>
+        <f aca="false">WEEKNUM(Times!A405,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6345,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="B406" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A406)</f>
+        <f aca="false">WEEKNUM(Times!A406,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6355,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="B407" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A407)</f>
+        <f aca="false">WEEKNUM(Times!A407,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6365,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="B408" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A408)</f>
+        <f aca="false">WEEKNUM(Times!A408,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6375,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="B409" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A409)</f>
+        <f aca="false">WEEKNUM(Times!A409,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6385,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="B410" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A410)</f>
+        <f aca="false">WEEKNUM(Times!A410,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6395,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="B411" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A411)</f>
+        <f aca="false">WEEKNUM(Times!A411,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6405,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="B412" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A412)</f>
+        <f aca="false">WEEKNUM(Times!A412,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6415,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="B413" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A413)</f>
+        <f aca="false">WEEKNUM(Times!A413,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6425,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="B414" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A414)</f>
+        <f aca="false">WEEKNUM(Times!A414,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6435,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="B415" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A415)</f>
+        <f aca="false">WEEKNUM(Times!A415,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6445,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="B416" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A416)</f>
+        <f aca="false">WEEKNUM(Times!A416,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6455,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="B417" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A417)</f>
+        <f aca="false">WEEKNUM(Times!A417,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6465,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="B418" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A418)</f>
+        <f aca="false">WEEKNUM(Times!A418,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6475,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="B419" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A419)</f>
+        <f aca="false">WEEKNUM(Times!A419,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6485,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="B420" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A420)</f>
+        <f aca="false">WEEKNUM(Times!A420,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6495,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="B421" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A421)</f>
+        <f aca="false">WEEKNUM(Times!A421,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6505,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="B422" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A422)</f>
+        <f aca="false">WEEKNUM(Times!A422,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6515,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="B423" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A423)</f>
+        <f aca="false">WEEKNUM(Times!A423,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6525,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="B424" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A424)</f>
+        <f aca="false">WEEKNUM(Times!A424,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6535,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="B425" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A425)</f>
+        <f aca="false">WEEKNUM(Times!A425,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6545,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="B426" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A426)</f>
+        <f aca="false">WEEKNUM(Times!A426,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6555,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="B427" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A427)</f>
+        <f aca="false">WEEKNUM(Times!A427,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6565,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="B428" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A428)</f>
+        <f aca="false">WEEKNUM(Times!A428,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6575,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="B429" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A429)</f>
+        <f aca="false">WEEKNUM(Times!A429,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6585,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="B430" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A430)</f>
+        <f aca="false">WEEKNUM(Times!A430,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6595,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="B431" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A431)</f>
+        <f aca="false">WEEKNUM(Times!A431,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6605,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="B432" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A432)</f>
+        <f aca="false">WEEKNUM(Times!A432,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6615,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="B433" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A433)</f>
+        <f aca="false">WEEKNUM(Times!A433,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6625,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="B434" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A434)</f>
+        <f aca="false">WEEKNUM(Times!A434,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6635,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="B435" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A435)</f>
+        <f aca="false">WEEKNUM(Times!A435,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6645,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="B436" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A436)</f>
+        <f aca="false">WEEKNUM(Times!A436,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6655,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="B437" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A437)</f>
+        <f aca="false">WEEKNUM(Times!A437,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6665,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="B438" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A438)</f>
+        <f aca="false">WEEKNUM(Times!A438,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6675,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="B439" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A439)</f>
+        <f aca="false">WEEKNUM(Times!A439,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6685,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="B440" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A440)</f>
+        <f aca="false">WEEKNUM(Times!A440,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6695,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="B441" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A441)</f>
+        <f aca="false">WEEKNUM(Times!A441,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6705,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="B442" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A442)</f>
+        <f aca="false">WEEKNUM(Times!A442,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6715,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="B443" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A443)</f>
+        <f aca="false">WEEKNUM(Times!A443,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6725,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="B444" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A444)</f>
+        <f aca="false">WEEKNUM(Times!A444,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6735,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="B445" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A445)</f>
+        <f aca="false">WEEKNUM(Times!A445,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6745,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="B446" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A446)</f>
+        <f aca="false">WEEKNUM(Times!A446,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6755,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="B447" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A447)</f>
+        <f aca="false">WEEKNUM(Times!A447,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6765,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="B448" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A448)</f>
+        <f aca="false">WEEKNUM(Times!A448,1)</f>
         <v>52</v>
       </c>
     </row>
@@ -6787,11 +6796,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6817,7 +6826,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.895833333333333</v>
+        <v>0.895833333333334</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6825,7 +6834,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.597222222222222</v>
+        <v>0.958333333321759</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,7 +6850,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="n">
-        <v>1.49305555555556</v>
+        <v>1.85416666665509</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -374,7 +374,7 @@
   </r>
   <r>
     <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
@@ -2178,11 +2178,11 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2258,7 +2258,7 @@
         <v>45211.3888888889</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>45211.3888888889</v>
+        <v>45211.6875</v>
       </c>
     </row>
   </sheetData>
@@ -2279,11 +2279,11 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2315,7 +2315,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>1.85416666665509</v>
+        <v>2.15277777775463</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2381,7 +2381,7 @@
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
         <f aca="false">Times!B9-Times!A9</f>
-        <v>0</v>
+        <v>0.298611111099537</v>
       </c>
       <c r="B9" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A9,1)</f>
@@ -6800,7 +6800,7 @@
       <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>

--- a/work.xlsx
+++ b/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -321,11 +321,13 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.361111111099537" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.361111111099537" count="9">
         <n v="0"/>
         <n v="0.166666666666667"/>
         <n v="0.229166666666667"/>
+        <n v="0.25"/>
         <n v="0.284722222222222"/>
+        <n v="0.298611111099537"/>
         <n v="0.3125"/>
         <n v="0.333333333333333"/>
         <n v="0.361111111099537"/>
@@ -345,7 +347,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="5"/>
+    <x v="7"/>
     <x v="0"/>
   </r>
   <r>
@@ -359,26 +361,26 @@
   <r>
     <x v="1"/>
     <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
   </r>
   <r>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -2140,14 +2142,16 @@
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="7">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="5"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
@@ -2176,13 +2180,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2259,6 +2263,14 @@
       </c>
       <c r="B9" s="5" t="n">
         <v>45211.6875</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>45212.4722222222</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>45212.7222222222</v>
       </c>
     </row>
   </sheetData>
@@ -2280,10 +2292,10 @@
   <dimension ref="A1:E448"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2315,7 +2327,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>2.15277777775463</v>
+        <v>2.40277777775463</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2389,13 +2401,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="4" t="n">
         <f aca="false">Times!B10-Times!A10</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B10" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A10,1)</f>
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6796,11 +6808,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6834,7 +6846,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.958333333321759</v>
+        <v>1.5069444444213</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,7 +6862,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="16" t="n">
-        <v>1.85416666665509</v>
+        <v>2.40277777775463</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -135,6 +135,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -151,13 +158,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -268,20 +268,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -321,8 +321,10 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.361111111099537" count="9">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="13">
         <n v="0"/>
+        <n v="0.0833333333333333"/>
+        <n v="0.125"/>
         <n v="0.166666666666667"/>
         <n v="0.229166666666667"/>
         <n v="0.25"/>
@@ -330,13 +332,17 @@
         <n v="0.298611111099537"/>
         <n v="0.3125"/>
         <n v="0.333333333333333"/>
+        <n v="0.340277777777778"/>
         <n v="0.361111111099537"/>
+        <n v="0.375"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Week" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="5">
         <n v="40"/>
         <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
         <n v="52"/>
       </sharedItems>
     </cacheField>
@@ -347,31 +353,35 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="11"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
@@ -379,1786 +389,1788 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
     <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="9">
+      <items count="13">
         <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="5"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="3"/>
+        <item x="10"/>
+        <item x="12"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="3">
+      <items count="5">
         <item x="0"/>
         <item x="1"/>
+        <item x="4"/>
         <item x="2"/>
+        <item x="3"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2180,13 +2192,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2271,6 +2283,38 @@
       </c>
       <c r="B10" s="5" t="n">
         <v>45212.7222222222</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>45215.3472222222</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>45215.7222222222</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>45216.5138888889</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>45216.5972222222</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>45218.5138888889</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>45218.6388888889</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>45222.3402777778</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>45222.6805555556</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +2339,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2327,7 +2371,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>2.40277777775463</v>
+        <v>3.32638888886574</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2413,41 +2457,41 @@
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <f aca="false">Times!B11-Times!A11</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A11,1)</f>
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <f aca="false">Times!B12-Times!A12</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A12,1)</f>
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <f aca="false">Times!B13-Times!A13</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="B13" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A13,1)</f>
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <f aca="false">Times!B14-Times!A14</f>
-        <v>0</v>
+        <v>0.340277777777778</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A14,1)</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6806,13 +6850,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6832,38 +6876,110 @@
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="10" t="n">
+        <v>0.791666666666667</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="12" t="n">
         <v>0.895833333333334</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="10" t="n">
         <v>1.5069444444213</v>
       </c>
+      <c r="C5" s="10" t="n">
+        <f aca="false">$D$3-B5</f>
+        <v>-0.71527777775463</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <f aca="false">$D$3-B7</f>
+        <v>0.208333333333333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <f aca="false">$D$3-B8</f>
+        <v>0.451388888888889</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="n">
-        <v>2.40277777775463</v>
-      </c>
+      <c r="B9" s="16" t="n">
+        <v>3.32638888886574</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="10" t="n">
+        <f aca="false">SUM(C5:C13)</f>
+        <v>-0.0555555555324074</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -227,7 +227,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -268,7 +268,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,6 +282,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -321,7 +325,7 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="13">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="15">
         <n v="0"/>
         <n v="0.0833333333333333"/>
         <n v="0.125"/>
@@ -331,8 +335,10 @@
         <n v="0.284722222222222"/>
         <n v="0.298611111099537"/>
         <n v="0.3125"/>
+        <n v="0.31944444443287"/>
         <n v="0.333333333333333"/>
         <n v="0.340277777777778"/>
+        <n v="0.3472222221875"/>
         <n v="0.361111111099537"/>
         <n v="0.375"/>
       </sharedItems>
@@ -353,7 +359,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="9"/>
+    <x v="10"/>
     <x v="0"/>
   </r>
   <r>
@@ -377,7 +383,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="11"/>
+    <x v="13"/>
     <x v="1"/>
   </r>
   <r>
@@ -389,7 +395,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="14"/>
     <x v="2"/>
   </r>
   <r>
@@ -401,16 +407,16 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="10"/>
+    <x v="11"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
@@ -2148,19 +2154,21 @@
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="13">
+      <items count="15">
         <item x="0"/>
         <item x="3"/>
         <item x="4"/>
         <item x="6"/>
         <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
+        <item x="10"/>
+        <item x="13"/>
         <item x="7"/>
         <item x="5"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="10"/>
+        <item x="11"/>
+        <item x="14"/>
+        <item x="9"/>
         <item x="12"/>
       </items>
     </pivotField>
@@ -2192,13 +2200,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2315,6 +2323,22 @@
       </c>
       <c r="B14" s="5" t="n">
         <v>45222.6805555556</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>45223.3888888889</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>45223.7083333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>45224.3611111111</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>45224.7083333333</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2363,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2371,7 +2395,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>3.32638888886574</v>
+        <v>3.99305555548611</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2497,21 +2521,21 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <f aca="false">Times!B15-Times!A15</f>
-        <v>0</v>
+        <v>0.31944444443287</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A15,1)</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">Times!B16-Times!A16</f>
-        <v>0</v>
+        <v>0.3472222221875</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A16,1)</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6856,7 +6880,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6892,7 +6916,7 @@
       <c r="A5" s="13" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="14" t="n">
         <v>1.5069444444213</v>
       </c>
       <c r="C5" s="10" t="n">
@@ -6904,7 +6928,7 @@
       <c r="A6" s="13" t="n">
         <v>52</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="14" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="10"/>
@@ -6913,7 +6937,7 @@
       <c r="A7" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="14" t="n">
         <v>0.583333333333333</v>
       </c>
       <c r="C7" s="10" t="n">
@@ -6925,20 +6949,20 @@
       <c r="A8" s="13" t="n">
         <v>43</v>
       </c>
-      <c r="B8" s="14" t="n">
-        <v>0.340277777777778</v>
+      <c r="B8" s="15" t="n">
+        <v>1.00694444439815</v>
       </c>
       <c r="C8" s="10" t="n">
         <f aca="false">$D$3-B8</f>
-        <v>0.451388888888889</v>
+        <v>-0.215277777731481</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="n">
-        <v>3.32638888886574</v>
+      <c r="B9" s="17" t="n">
+        <v>3.99305555548611</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -6960,7 +6984,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="10" t="n">
         <f aca="false">SUM(C5:C13)</f>
-        <v>-0.0555555555324074</v>
+        <v>-0.722222222152778</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/work.xlsx
+++ b/work.xlsx
@@ -325,8 +325,9 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="15">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="16">
         <n v="0"/>
+        <n v="0.0625"/>
         <n v="0.0833333333333333"/>
         <n v="0.125"/>
         <n v="0.166666666666667"/>
@@ -334,11 +335,11 @@
         <n v="0.25"/>
         <n v="0.284722222222222"/>
         <n v="0.298611111099537"/>
+        <n v="0.30555555556713"/>
         <n v="0.3125"/>
         <n v="0.31944444443287"/>
         <n v="0.333333333333333"/>
         <n v="0.340277777777778"/>
-        <n v="0.3472222221875"/>
         <n v="0.361111111099537"/>
         <n v="0.375"/>
       </sharedItems>
@@ -359,20 +360,32 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
@@ -383,23 +396,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="15"/>
     <x v="2"/>
   </r>
   <r>
@@ -407,6 +404,14 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="11"/>
     <x v="3"/>
   </r>
@@ -415,12 +420,8 @@
     <x v="3"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="1"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -2154,22 +2155,23 @@
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="15">
+      <items count="16">
         <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="10"/>
         <item x="13"/>
-        <item x="7"/>
-        <item x="5"/>
+        <item x="15"/>
+        <item x="11"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="14"/>
         <item x="9"/>
-        <item x="12"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
@@ -2200,13 +2202,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2338,7 +2340,15 @@
         <v>45224.3611111111</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>45224.7083333333</v>
+        <v>45224.6666666667</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>45225.6458333333</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45225.7083333333</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2373,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2395,7 +2405,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>3.99305555548611</v>
+        <v>4.01388888886574</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2531,7 +2541,7 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <f aca="false">Times!B16-Times!A16</f>
-        <v>0.3472222221875</v>
+        <v>0.30555555556713</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A16,1)</f>
@@ -2541,11 +2551,11 @@
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <f aca="false">Times!B17-Times!A17</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A17,1)</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6877,10 +6887,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6950,11 +6960,11 @@
         <v>43</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>1.00694444439815</v>
+        <v>1.02777777777778</v>
       </c>
       <c r="C8" s="10" t="n">
         <f aca="false">$D$3-B8</f>
-        <v>-0.215277777731481</v>
+        <v>-0.236111111111111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="17" t="n">
-        <v>3.99305555548611</v>
+        <v>4.01388888886574</v>
       </c>
       <c r="C9" s="10"/>
     </row>
@@ -6984,7 +6994,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="10" t="n">
         <f aca="false">SUM(C5:C13)</f>
-        <v>-0.722222222152778</v>
+        <v>-0.743055555532408</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/work.xlsx
+++ b/work.xlsx
@@ -325,8 +325,10 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="15">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="17">
         <n v="0"/>
+        <n v="0.0625"/>
+        <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
         <n v="0.125"/>
         <n v="0.166666666666667"/>
@@ -335,20 +337,21 @@
         <n v="0.284722222222222"/>
         <n v="0.298611111099537"/>
         <n v="0.3125"/>
-        <n v="0.31944444443287"/>
+        <n v="0.319444444398148"/>
         <n v="0.333333333333333"/>
-        <n v="0.340277777777778"/>
-        <n v="0.3472222221875"/>
+        <n v="0.340277777800926"/>
+        <n v="0.347222222199074"/>
         <n v="0.361111111099537"/>
         <n v="0.375"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Week" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="6">
         <n v="40"/>
         <n v="41"/>
         <n v="42"/>
         <n v="43"/>
+        <n v="44"/>
         <n v="52"/>
       </sharedItems>
     </cacheField>
@@ -359,31 +362,35 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="8"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="15"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="13"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -391,15 +398,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="16"/>
     <x v="2"/>
   </r>
   <r>
@@ -407,1778 +406,1785 @@
     <x v="2"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="11"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="9"/>
+    <x v="14"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="1"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="3"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="5"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="15">
+      <items count="17">
         <item x="0"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item x="5"/>
         <item x="6"/>
         <item x="8"/>
         <item x="10"/>
+        <item x="12"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="13"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="2"/>
+        <item x="16"/>
         <item x="11"/>
         <item x="14"/>
-        <item x="9"/>
-        <item x="12"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="5">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
-        <item x="4"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2200,13 +2206,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2339,6 +2345,30 @@
       </c>
       <c r="B16" s="5" t="n">
         <v>45224.7083333333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>45226.5208333333</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>45226.5833333333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>45229.5833333333</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>45229.6666666667</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>45230.4166666667</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>45230.5833333333</v>
       </c>
     </row>
   </sheetData>
@@ -2360,10 +2390,10 @@
   <dimension ref="A1:E448"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2395,7 +2425,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>3.99305555548611</v>
+        <v>4.30555555545139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2479,7 +2509,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="4" t="n">
         <f aca="false">Times!B11-Times!A11</f>
         <v>0.375</v>
       </c>
@@ -2489,9 +2519,9 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="4" t="n">
         <f aca="false">Times!B12-Times!A12</f>
-        <v>0.0833333333333333</v>
+        <v>0.0833333332986111</v>
       </c>
       <c r="B12" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A12,1)</f>
@@ -2499,7 +2529,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="4" t="n">
         <f aca="false">Times!B13-Times!A13</f>
         <v>0.125</v>
       </c>
@@ -2509,9 +2539,9 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="4" t="n">
         <f aca="false">Times!B14-Times!A14</f>
-        <v>0.340277777777778</v>
+        <v>0.340277777800926</v>
       </c>
       <c r="B14" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A14,1)</f>
@@ -2519,9 +2549,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="4" t="n">
         <f aca="false">Times!B15-Times!A15</f>
-        <v>0.31944444443287</v>
+        <v>0.319444444398148</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A15,1)</f>
@@ -2529,9 +2559,9 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="4" t="n">
         <f aca="false">Times!B16-Times!A16</f>
-        <v>0.3472222221875</v>
+        <v>0.347222222199074</v>
       </c>
       <c r="B16" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A16,1)</f>
@@ -2539,33 +2569,33 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="4" t="n">
         <f aca="false">Times!B17-Times!A17</f>
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="B17" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A17,1)</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="4" t="n">
         <f aca="false">Times!B18-Times!A18</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A18,1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="4" t="n">
         <f aca="false">Times!B19-Times!A19</f>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A19,1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6877,10 +6907,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6926,47 +6956,56 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>0.583333333298611</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <f aca="false">$D$3-B6</f>
+        <v>0.208333333368056</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="14" t="n">
-        <v>0.583333333333333</v>
+        <v>1.06944444439815</v>
       </c>
       <c r="C7" s="10" t="n">
         <f aca="false">$D$3-B7</f>
-        <v>0.208333333333333</v>
+        <v>-0.277777777731481</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="B8" s="15" t="n">
-        <v>1.00694444439815</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>0.25</v>
       </c>
       <c r="C8" s="10" t="n">
         <f aca="false">$D$3-B8</f>
-        <v>-0.215277777731481</v>
+        <v>0.541666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="n">
-        <v>3.99305555548611</v>
-      </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="17" t="n">
+        <v>4.30555555545139</v>
+      </c>
       <c r="C10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,7 +7023,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="10" t="n">
         <f aca="false">SUM(C5:C13)</f>
-        <v>-0.722222222152778</v>
+        <v>-0.243055555451389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/work.xlsx
+++ b/work.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Time:</t>
   </si>
   <si>
-    <t xml:space="preserve">- all -</t>
+    <t xml:space="preserve">- multiple -</t>
   </si>
   <si>
     <t xml:space="preserve">Sum - Time worked*</t>
@@ -325,13 +325,14 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="17">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="18">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
         <n v="0.125"/>
         <n v="0.166666666666667"/>
+        <n v="0.208333333298611"/>
         <n v="0.229166666666667"/>
         <n v="0.25"/>
         <n v="0.284722222222222"/>
@@ -362,20 +363,32 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="12"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="10"/>
@@ -386,19 +399,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="16"/>
+    <x v="17"/>
     <x v="2"/>
   </r>
   <r>
@@ -410,18 +411,18 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="14"/>
     <x v="3"/>
   </r>
   <r>
+    <x v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="3"/>
   </r>
@@ -430,12 +431,12 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="5"/>
+    <x v="6"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -2157,23 +2158,24 @@
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="17">
+      <items count="18">
         <item x="0"/>
         <item x="5"/>
-        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="10"/>
         <item x="8"/>
-        <item x="10"/>
+        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="17"/>
         <item x="12"/>
         <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="14"/>
         <item x="1"/>
+        <item x="6"/>
         <item h="1" x="3"/>
       </items>
     </pivotField>
@@ -2206,13 +2208,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2368,7 +2370,15 @@
         <v>45230.4166666667</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>45230.5833333333</v>
+        <v>45230.625</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>45232.4166666667</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>45232.5833333333</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2403,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2425,7 +2435,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>4.30555555545139</v>
+        <v>4.51388888868056</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2591,7 +2601,7 @@
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
         <f aca="false">Times!B19-Times!A19</f>
-        <v>0.166666666666667</v>
+        <v>0.208333333298611</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A19,1)</f>
@@ -2599,13 +2609,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="4" t="n">
         <f aca="false">Times!B20-Times!A20</f>
-        <v>0</v>
+        <v>0.166666666597222</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A20,1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6907,10 +6917,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
   </cols>
@@ -6983,7 +6993,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="14" t="n">
-        <v>0.25</v>
+        <v>0.374999999965278</v>
       </c>
       <c r="C8" s="10" t="n">
         <f aca="false">$D$3-B8</f>
@@ -7004,7 +7014,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="n">
-        <v>4.30555555545139</v>
+        <v>4.43055555541667</v>
       </c>
       <c r="C10" s="10"/>
     </row>

--- a/work.xlsx
+++ b/work.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">- multiple -</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum - Time worked*</t>
+    <t xml:space="preserve">Sum - Time worked</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -227,7 +227,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +249,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,27 +323,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="447" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="199" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B448" sheet="Calc"/>
+    <worksheetSource ref="A1:B200" sheet="Calc"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="18">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="20">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
+        <n v="0.0833333333680556"/>
         <n v="0.125"/>
-        <n v="0.166666666666667"/>
+        <n v="0.166666666597222"/>
+        <n v="0.166666666631944"/>
         <n v="0.208333333298611"/>
-        <n v="0.229166666666667"/>
+        <n v="0.229166666701389"/>
         <n v="0.25"/>
-        <n v="0.284722222222222"/>
+        <n v="0.284722222199074"/>
         <n v="0.298611111099537"/>
         <n v="0.3125"/>
         <n v="0.319444444398148"/>
-        <n v="0.333333333333333"/>
+        <n v="0.333333333298611"/>
         <n v="0.340277777800926"/>
         <n v="0.347222222199074"/>
         <n v="0.361111111099537"/>
@@ -361,33 +367,37 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="199">
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
   <r>
     <x v="13"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="11"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="9"/>
+    <x v="18"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="16"/>
+    <x v="12"/>
     <x v="1"/>
   </r>
   <r>
@@ -395,11 +405,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="17"/>
+    <x v="19"/>
     <x v="2"/>
   </r>
   <r>
@@ -407,19 +413,19 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="5"/>
     <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="14"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="12"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="15"/>
+    <x v="17"/>
     <x v="3"/>
   </r>
   <r>
@@ -427,1012 +433,20 @@
     <x v="3"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -2158,25 +1172,27 @@
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="7"/>
+      <items count="20">
+        <item x="6"/>
         <item x="9"/>
         <item x="11"/>
         <item x="13"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item h="1" x="2"/>
+        <item x="5"/>
         <item x="16"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
+        <item x="19"/>
         <item x="14"/>
         <item x="17"/>
-        <item x="12"/>
-        <item x="15"/>
         <item x="1"/>
-        <item x="6"/>
+        <item x="0"/>
+        <item x="8"/>
         <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="7"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
@@ -2208,13 +1224,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2379,6 +1395,14 @@
       </c>
       <c r="B20" s="5" t="n">
         <v>45232.5833333333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>45229.5833333333</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>45229.6666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2399,16 +1423,16 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2426,7 +1450,7 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <f aca="false">Times!B2-Times!A2</f>
-        <v>0.333333333333333</v>
+        <v>0.333333333298611</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A2,1)</f>
@@ -2435,13 +1459,13 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>4.51388888868056</v>
+        <v>4.5972222219213</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
         <f aca="false">Times!B3-Times!A3</f>
-        <v>0.229166666666667</v>
+        <v>0.229166666701389</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A3,1)</f>
@@ -2451,7 +1475,7 @@
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
         <f aca="false">Times!B4-Times!A4</f>
-        <v>0.166666666666667</v>
+        <v>0.166666666597222</v>
       </c>
       <c r="B4" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A4,1)</f>
@@ -2461,7 +1485,7 @@
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
         <f aca="false">Times!B5-Times!A5</f>
-        <v>0.166666666666667</v>
+        <v>0.166666666597222</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A5,1)</f>
@@ -2477,11 +1501,12 @@
         <f aca="false">WEEKNUM(Times!A6,1)</f>
         <v>41</v>
       </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
         <f aca="false">Times!B7-Times!A7</f>
-        <v>0.284722222222222</v>
+        <v>0.284722222199074</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A7,1)</f>
@@ -2497,6 +1522,10 @@
         <f aca="false">WEEKNUM(Times!A8,1)</f>
         <v>41</v>
       </c>
+      <c r="E8" s="4" t="n">
+        <f aca="false">SUM(A6:A10)</f>
+        <v>1.50694444439815</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -2507,6 +1536,10 @@
         <f aca="false">WEEKNUM(Times!A9,1)</f>
         <v>41</v>
       </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">SUM(A11:A13)</f>
+        <v>0.583333333298611</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -2517,6 +1550,10 @@
         <f aca="false">WEEKNUM(Times!A10,1)</f>
         <v>41</v>
       </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">SUM(A14:A17)</f>
+        <v>1.06944444439815</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -2527,6 +1564,10 @@
         <f aca="false">WEEKNUM(Times!A11,1)</f>
         <v>42</v>
       </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">SUM(A18:A20)</f>
+        <v>0.458333333298611</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
@@ -2591,12 +1632,13 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
         <f aca="false">Times!B18-Times!A18</f>
-        <v>0.0833333333333333</v>
+        <v>0.0833333333680556</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A18,1)</f>
         <v>44</v>
       </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
@@ -2611,7 +1653,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <f aca="false">Times!B20-Times!A20</f>
-        <v>0.166666666597222</v>
+        <v>0.166666666631944</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A20,1)</f>
@@ -2619,17 +1661,17 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="4" t="n">
         <f aca="false">Times!B21-Times!A21</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A21,1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="4" t="n">
         <f aca="false">Times!B22-Times!A22</f>
         <v>0</v>
       </c>
@@ -2639,7 +1681,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="4" t="n">
         <f aca="false">Times!B23-Times!A23</f>
         <v>0</v>
       </c>
@@ -2649,7 +1691,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="4" t="n">
         <f aca="false">Times!B24-Times!A24</f>
         <v>0</v>
       </c>
@@ -2659,7 +1701,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="4" t="n">
         <f aca="false">Times!B25-Times!A25</f>
         <v>0</v>
       </c>
@@ -2669,7 +1711,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="4" t="n">
         <f aca="false">Times!B26-Times!A26</f>
         <v>0</v>
       </c>
@@ -2679,7 +1721,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="4" t="n">
         <f aca="false">Times!B27-Times!A27</f>
         <v>0</v>
       </c>
@@ -2689,7 +1731,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="4" t="n">
         <f aca="false">Times!B28-Times!A28</f>
         <v>0</v>
       </c>
@@ -2699,7 +1741,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="4" t="n">
         <f aca="false">Times!B29-Times!A29</f>
         <v>0</v>
       </c>
@@ -2709,7 +1751,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="4" t="n">
         <f aca="false">Times!B30-Times!A30</f>
         <v>0</v>
       </c>
@@ -2719,7 +1761,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="4" t="n">
         <f aca="false">Times!B31-Times!A31</f>
         <v>0</v>
       </c>
@@ -2729,7 +1771,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="4" t="n">
         <f aca="false">Times!B32-Times!A32</f>
         <v>0</v>
       </c>
@@ -2739,7 +1781,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="4" t="n">
         <f aca="false">Times!B33-Times!A33</f>
         <v>0</v>
       </c>
@@ -2749,7 +1791,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="4" t="n">
         <f aca="false">Times!B34-Times!A34</f>
         <v>0</v>
       </c>
@@ -2759,7 +1801,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="4" t="n">
         <f aca="false">Times!B35-Times!A35</f>
         <v>0</v>
       </c>
@@ -2769,7 +1811,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="4" t="n">
         <f aca="false">Times!B36-Times!A36</f>
         <v>0</v>
       </c>
@@ -2779,7 +1821,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="4" t="n">
         <f aca="false">Times!B37-Times!A37</f>
         <v>0</v>
       </c>
@@ -2789,7 +1831,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="4" t="n">
         <f aca="false">Times!B38-Times!A38</f>
         <v>0</v>
       </c>
@@ -2799,7 +1841,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="4" t="n">
         <f aca="false">Times!B39-Times!A39</f>
         <v>0</v>
       </c>
@@ -2809,7 +1851,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="4" t="n">
         <f aca="false">Times!B40-Times!A40</f>
         <v>0</v>
       </c>
@@ -6914,145 +5956,159 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>0.895833333333334</v>
+      <c r="B4" s="13" t="n">
+        <v>0.895833333194444</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="14" t="n">
-        <v>1.5069444444213</v>
-      </c>
-      <c r="C5" s="10" t="n">
+      <c r="B5" s="15" t="n">
+        <v>1.50694444439815</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <f aca="false">$D$3-B5</f>
-        <v>-0.71527777775463</v>
+        <v>-0.715277777731482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="B6" s="14" t="n">
+      <c r="B6" s="15" t="n">
         <v>0.583333333298611</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="11" t="n">
         <f aca="false">$D$3-B6</f>
         <v>0.208333333368056</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="B7" s="14" t="n">
+      <c r="B7" s="15" t="n">
         <v>1.06944444439815</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">$D$3-B7</f>
         <v>-0.277777777731481</v>
       </c>
+      <c r="F7" s="6" t="n">
+        <f aca="false">Calc!A18</f>
+        <v>0.0833333333680556</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">Calc!B18</f>
+        <v>44</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="B8" s="14" t="n">
-        <v>0.374999999965278</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <f aca="false">$D$3-B8</f>
-        <v>0.541666666666667</v>
-      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.458333333263889</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <f aca="false">$D$3-B8-D8</f>
+        <v>0.333333333402778</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10"/>
+      <c r="A9" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="F9" s="6" t="n">
+        <f aca="false">F7-D3</f>
+        <v>-0.708333333298611</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="n">
-        <v>4.43055555541667</v>
-      </c>
-      <c r="C10" s="10"/>
+      <c r="B10" s="18" t="n">
+        <v>4.51388888855324</v>
+      </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="10"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">SUM(C5:C13)</f>
-        <v>-0.243055555451389</v>
+        <v>-0.45138888869213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -45,7 +45,7 @@
     <t xml:space="preserve">- multiple -</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum - Time worked</t>
+    <t xml:space="preserve">Sum - Time worked*</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -60,7 +60,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,6 +95,11 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -249,6 +254,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,12 +346,12 @@
         <n v="0.0833333333680556"/>
         <n v="0.125"/>
         <n v="0.166666666597222"/>
-        <n v="0.166666666631944"/>
         <n v="0.208333333298611"/>
         <n v="0.229166666701389"/>
         <n v="0.25"/>
         <n v="0.284722222199074"/>
         <n v="0.298611111099537"/>
+        <n v="0.305555555520833"/>
         <n v="0.3125"/>
         <n v="0.319444444398148"/>
         <n v="0.333333333298611"/>
@@ -373,7 +382,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="9"/>
+    <x v="8"/>
     <x v="0"/>
   </r>
   <r>
@@ -389,19 +398,19 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="11"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="18"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -437,20 +446,20 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="4"/>
-  </r>
-  <r>
     <x v="7"/>
     <x v="4"/>
   </r>
   <r>
+    <x v="12"/>
+    <x v="4"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
@@ -1173,14 +1182,14 @@
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
       <items count="20">
-        <item x="6"/>
-        <item x="9"/>
-        <item x="11"/>
+        <item h="1" x="6"/>
+        <item x="8"/>
+        <item x="10"/>
         <item x="13"/>
         <item x="15"/>
         <item x="18"/>
-        <item x="12"/>
-        <item x="10"/>
+        <item x="11"/>
+        <item x="9"/>
         <item h="1" x="2"/>
         <item x="5"/>
         <item x="16"/>
@@ -1189,10 +1198,10 @@
         <item x="17"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="8"/>
+        <item x="7"/>
+        <item x="12"/>
         <item h="1" x="3"/>
         <item h="1" x="4"/>
-        <item h="1" x="7"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
@@ -1224,13 +1233,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -1394,7 +1403,7 @@
         <v>45232.4166666667</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>45232.5833333333</v>
+        <v>45232.7222222222</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,6 +1412,14 @@
       </c>
       <c r="B21" s="5" t="n">
         <v>45229.6666666667</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>45233.4166666667</v>
+      </c>
+      <c r="B22" s="6" t="n">
+        <v>45233.4166666667</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1444,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -1459,7 +1476,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>4.5972222219213</v>
+        <v>4.73611111081018</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1501,7 +1518,7 @@
         <f aca="false">WEEKNUM(Times!A6,1)</f>
         <v>41</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -1566,7 +1583,7 @@
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">SUM(A18:A20)</f>
-        <v>0.458333333298611</v>
+        <v>0.5972222221875</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1638,7 +1655,7 @@
         <f aca="false">WEEKNUM(Times!A18,1)</f>
         <v>44</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
@@ -1653,7 +1670,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <f aca="false">Times!B20-Times!A20</f>
-        <v>0.166666666631944</v>
+        <v>0.305555555520833</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A20,1)</f>
@@ -1677,7 +1694,7 @@
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A22,1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5959,78 +5976,78 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>0.895833333194444</v>
+      <c r="B4" s="14" t="n">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="16" t="n">
         <v>1.50694444439815</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <f aca="false">$D$3-B5</f>
         <v>-0.715277777731482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="16" t="n">
         <v>0.583333333298611</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <f aca="false">$D$3-B6</f>
         <v>0.208333333368056</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="16" t="n">
         <v>1.06944444439815</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <f aca="false">$D$3-B7</f>
         <v>-0.277777777731481</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <f aca="false">Calc!A18</f>
         <v>0.0833333333680556</v>
       </c>
@@ -6040,75 +6057,75 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="B8" s="15" t="n">
-        <v>0.458333333263889</v>
-      </c>
-      <c r="C8" s="11" t="n">
+      <c r="B8" s="16" t="n">
+        <v>0.597222222152778</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <f aca="false">$D$3-B8-D8</f>
-        <v>0.333333333402778</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>0.194444444513889</v>
+      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="F9" s="6" t="n">
+      <c r="A9" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="F9" s="7" t="n">
         <f aca="false">F7-D3</f>
         <v>-0.708333333298611</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="n">
-        <v>4.51388888855324</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="B10" s="19" t="n">
+        <v>4.31944444424768</v>
+      </c>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="11"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="11"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <f aca="false">SUM(C5:C13)</f>
-        <v>-0.45138888869213</v>
+        <v>-0.590277777581018</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="11"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="11"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="11"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11"/>
+      <c r="C21" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Start</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">Sum - Time worked*</t>
   </si>
   <si>
+    <t xml:space="preserve">Hier muss ich trixen, weil der zeile 18 nicht lesen will</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Result</t>
   </si>
 </sst>
@@ -60,7 +63,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,11 +98,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +230,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,10 +252,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,10 +334,10 @@
     <cacheField name="Time worked" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="20">
         <n v="0"/>
+        <n v="0.0138888888541667"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
-        <n v="0.0833333333680556"/>
         <n v="0.125"/>
         <n v="0.166666666597222"/>
         <n v="0.208333333298611"/>
@@ -351,7 +345,7 @@
         <n v="0.25"/>
         <n v="0.284722222199074"/>
         <n v="0.298611111099537"/>
-        <n v="0.305555555520833"/>
+        <n v="0.305555555497685"/>
         <n v="0.3125"/>
         <n v="0.319444444398148"/>
         <n v="0.333333333298611"/>
@@ -418,7 +412,7 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="2"/>
+    <x v="3"/>
     <x v="2"/>
   </r>
   <r>
@@ -438,7 +432,7 @@
     <x v="3"/>
   </r>
   <r>
-    <x v="1"/>
+    <x v="2"/>
     <x v="3"/>
   </r>
   <r>
@@ -454,12 +448,12 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="1"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -1190,17 +1184,17 @@
         <item x="18"/>
         <item x="11"/>
         <item x="9"/>
-        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item x="5"/>
         <item x="16"/>
         <item x="19"/>
         <item x="14"/>
         <item x="17"/>
-        <item x="1"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="7"/>
         <item x="12"/>
-        <item h="1" x="3"/>
+        <item x="1"/>
         <item h="1" x="4"/>
       </items>
     </pivotField>
@@ -1236,10 +1230,10 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -1408,19 +1402,15 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>45229.5833333333</v>
+        <v>45233.4166666667</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45229.6666666667</v>
+        <v>45233.4305555556</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
-        <v>45233.4166666667</v>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>45233.4166666667</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1440,11 +1430,11 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A92" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -1476,7 +1466,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>4.73611111081018</v>
+        <v>4.66666666627315</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1518,7 +1508,7 @@
         <f aca="false">WEEKNUM(Times!A6,1)</f>
         <v>41</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -1583,7 +1573,7 @@
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">SUM(A18:A20)</f>
-        <v>0.5972222221875</v>
+        <v>0.59722222212963</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1648,14 +1638,12 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <f aca="false">Times!B18-Times!A18</f>
-        <v>0.0833333333680556</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="B18" s="1" t="n">
-        <f aca="false">WEEKNUM(Times!A18,1)</f>
         <v>44</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
@@ -1670,7 +1658,7 @@
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
         <f aca="false">Times!B20-Times!A20</f>
-        <v>0.305555555520833</v>
+        <v>0.305555555497685</v>
       </c>
       <c r="B20" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A20,1)</f>
@@ -1680,7 +1668,7 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <f aca="false">Times!B21-Times!A21</f>
-        <v>0.0833333333333333</v>
+        <v>0.0138888888541667</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A21,1)</f>
@@ -1694,7 +1682,7 @@
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A22,1)</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5976,156 +5964,152 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="14" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.5625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="15" t="n">
         <v>1.50694444439815</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="11" t="n">
         <f aca="false">$D$3-B5</f>
         <v>-0.715277777731482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="15" t="n">
         <v>0.583333333298611</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="11" t="n">
         <f aca="false">$D$3-B6</f>
         <v>0.208333333368056</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="15" t="n">
         <v>1.06944444439815</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">$D$3-B7</f>
         <v>-0.277777777731481</v>
       </c>
-      <c r="F7" s="7" t="n">
-        <f aca="false">Calc!A18</f>
-        <v>0.0833333333680556</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">Calc!B18</f>
+      <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
-        <v>44</v>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>0.597222222152778</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <f aca="false">$D$3-B8-D8</f>
-        <v>0.194444444513889</v>
-      </c>
-      <c r="D8" s="12"/>
+      <c r="B8" s="15" t="n">
+        <v>0.527777777650463</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <f aca="false">$D$3-(B8+D8)</f>
+        <v>0.180555555682871</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="F9" s="7" t="n">
-        <f aca="false">F7-D3</f>
-        <v>-0.708333333298611</v>
-      </c>
+      <c r="A9" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="n">
-        <v>4.31944444424768</v>
-      </c>
-      <c r="C10" s="12"/>
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>4.24999999974537</v>
+      </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">SUM(C5:C13)</f>
-        <v>-0.590277777581018</v>
+        <v>-0.604166666412037</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Calc" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pivot Table_Calc_1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Calc2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">Start</t>
   </si>
@@ -42,13 +42,10 @@
     <t xml:space="preserve">Time:</t>
   </si>
   <si>
-    <t xml:space="preserve">- multiple -</t>
+    <t xml:space="preserve">- all -</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum - Time worked*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hier muss ich trixen, weil der zeile 18 nicht lesen will</t>
+    <t xml:space="preserve">Sum - Time worked</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -124,6 +121,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="medium"/>
@@ -138,13 +142,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -154,7 +151,7 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="medium"/>
-      <top style="thin"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -230,7 +227,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,15 +264,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -289,10 +286,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -326,15 +319,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="199" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="447" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B200" sheet="Calc"/>
+    <worksheetSource ref="A1:B448" sheet="Calc"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="20">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="19">
         <n v="0"/>
-        <n v="0.0138888888541667"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
@@ -356,12 +348,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Week" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="7">
         <n v="40"/>
         <n v="41"/>
         <n v="42"/>
         <n v="43"/>
         <n v="44"/>
+        <n v="45"/>
         <n v="52"/>
       </sharedItems>
     </cacheField>
@@ -370,25 +363,33 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="199">
-  <r>
-    <x v="15"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
     <x v="1"/>
   </r>
   <r>
@@ -396,816 +397,1800 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="18"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="19"/>
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
     <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="16"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="14"/>
+    <x v="1"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="17"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="7"/>
+    <x v="11"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="13"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
     <x v="0"/>
     <x v="5"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="20">
-        <item h="1" x="6"/>
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
         <item x="18"/>
-        <item x="11"/>
-        <item x="9"/>
         <item h="1" x="3"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="19"/>
-        <item x="14"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="12"/>
-        <item x="1"/>
-        <item h="1" x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -1230,10 +2215,10 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -1405,12 +2390,16 @@
         <v>45233.4166666667</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>45233.4305555556</v>
+        <v>45233.7361111111</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="3" t="n">
+        <v>45236.375</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>45236.375</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1430,11 +2419,11 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -1466,7 +2455,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>4.66666666627315</v>
+        <v>4.97222222181713</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1572,8 +2561,8 @@
         <v>42</v>
       </c>
       <c r="E11" s="4" t="n">
-        <f aca="false">SUM(A18:A20)</f>
-        <v>0.59722222212963</v>
+        <f aca="false">SUM(A18:A21)</f>
+        <v>0.916666666527778</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1654,6 +2643,10 @@
         <f aca="false">WEEKNUM(Times!A19,1)</f>
         <v>44</v>
       </c>
+      <c r="D19" s="6" t="n">
+        <f aca="false">SUM(A18:A21)</f>
+        <v>0.916666666527778</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
@@ -1668,7 +2661,7 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
         <f aca="false">Times!B21-Times!A21</f>
-        <v>0.0138888888541667</v>
+        <v>0.319444444398148</v>
       </c>
       <c r="B21" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A21,1)</f>
@@ -1682,7 +2675,7 @@
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A22,1)</f>
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5961,17 +6954,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.61"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -5981,34 +6970,37 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="9" t="n">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>0.791666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>0.5625</v>
-      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.895833333194444</v>
+      </c>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="15" t="n">
+      <c r="B5" s="13" t="n">
         <v>1.50694444439815</v>
       </c>
-      <c r="C5" s="11" t="n">
-        <f aca="false">$D$3-B5</f>
+      <c r="C5" s="13" t="n">
+        <f aca="false">$E$2-B5</f>
         <v>-0.715277777731482</v>
       </c>
     </row>
@@ -6016,11 +7008,11 @@
       <c r="A6" s="14" t="n">
         <v>42</v>
       </c>
-      <c r="B6" s="15" t="n">
+      <c r="B6" s="13" t="n">
         <v>0.583333333298611</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <f aca="false">$D$3-B6</f>
+      <c r="C6" s="13" t="n">
+        <f aca="false">$E$2-B6</f>
         <v>0.208333333368056</v>
       </c>
     </row>
@@ -6028,88 +7020,59 @@
       <c r="A7" s="14" t="n">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="13" t="n">
         <v>1.06944444439815</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <f aca="false">$D$3-B7</f>
+      <c r="C7" s="13" t="n">
+        <f aca="false">$E$2-B7</f>
         <v>-0.277777777731481</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="n">
         <v>44</v>
       </c>
-      <c r="B8" s="15" t="n">
-        <v>0.527777777650463</v>
-      </c>
-      <c r="C8" s="11" t="n">
-        <f aca="false">$D$3-(B8+D8)</f>
-        <v>0.180555555682871</v>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>7</v>
+      <c r="B8" s="13" t="n">
+        <v>0.916666666527778</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <f aca="false">$E$2-B8</f>
+        <v>-0.124999999861111</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="F9" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <f aca="false">$E$2-B9</f>
+        <v>0.791666666666667</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18" t="n">
-        <v>4.24999999974537</v>
-      </c>
-      <c r="C10" s="11"/>
+      <c r="A10" s="14" t="n">
+        <v>52</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="11"/>
+      <c r="A11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="n">
+        <v>4.97222222181713</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="11" t="n">
-        <f aca="false">SUM(C5:C13)</f>
-        <v>-0.604166666412037</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11"/>
+      <c r="D14" s="6" t="n">
+        <f aca="false">SUM(C5:C9)</f>
+        <v>-0.118055555289352</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -42,10 +42,10 @@
     <t xml:space="preserve">Time:</t>
   </si>
   <si>
-    <t xml:space="preserve">- all -</t>
+    <t xml:space="preserve">- multiple -</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum - Time worked</t>
+    <t xml:space="preserve">Sum - Time worked*</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -227,7 +227,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,7 +264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,12 +280,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -325,13 +333,14 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="19">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="20">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
         <n v="0.125"/>
         <n v="0.166666666597222"/>
+        <n v="0.166666666666667"/>
         <n v="0.208333333298611"/>
         <n v="0.229166666701389"/>
         <n v="0.25"/>
@@ -365,11 +374,11 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="14"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
+    <x v="15"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
     <x v="0"/>
   </r>
   <r>
@@ -381,7 +390,19 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
     <x v="1"/>
   </r>
   <r>
@@ -389,19 +410,7 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="17"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="18"/>
+    <x v="19"/>
     <x v="2"/>
   </r>
   <r>
@@ -413,18 +422,18 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="16"/>
     <x v="3"/>
   </r>
   <r>
+    <x v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="3"/>
   </r>
@@ -433,24 +442,24 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="7"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="11"/>
+    <x v="12"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="13"/>
+    <x v="14"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="9"/>
     <x v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="6"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -2160,13 +2169,12 @@
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="2">
     <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="19">
+      <items count="20">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
@@ -2179,7 +2187,9 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="19"/>
         <item h="1" x="3"/>
+        <item h="1" x="6"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
@@ -2212,13 +2222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="2" sqref="D14 L16 B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2398,7 +2408,15 @@
         <v>45236.375</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>45236.375</v>
+        <v>45236.625</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>45237.4583333333</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45237.625</v>
       </c>
     </row>
   </sheetData>
@@ -2420,10 +2438,10 @@
   <dimension ref="A1:E448"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="2" sqref="D14 L16 E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2455,7 +2473,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>4.97222222181713</v>
+        <v>5.38888888848379</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2671,7 +2689,7 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
         <f aca="false">Times!B22-Times!A22</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B22" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A22,1)</f>
@@ -2681,11 +2699,11 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <f aca="false">Times!B23-Times!A23</f>
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="B23" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A23,1)</f>
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6957,10 +6975,10 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="D14 L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -6987,91 +7005,91 @@
       <c r="A4" s="12" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="13" t="n">
         <v>0.895833333194444</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>41</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="16" t="n">
         <v>1.50694444439815</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <f aca="false">$E$2-B5</f>
         <v>-0.715277777731482</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>42</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="16" t="n">
         <v>0.583333333298611</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <f aca="false">$E$2-B6</f>
         <v>0.208333333368056</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>43</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="16" t="n">
         <v>1.06944444439815</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <f aca="false">$E$2-B7</f>
         <v>-0.277777777731481</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="B8" s="13" t="n">
-        <v>0.916666666527778</v>
-      </c>
-      <c r="C8" s="13" t="n">
+      <c r="B8" s="16" t="n">
+        <v>0.833333333194444</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <f aca="false">$E$2-B8</f>
-        <v>-0.124999999861111</v>
+        <v>-0.0416666665277778</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13" t="n">
+      <c r="B9" s="16" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <f aca="false">$E$2-B9</f>
-        <v>0.791666666666667</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
-        <v>52</v>
-      </c>
-      <c r="B10" s="15" t="n">
+      <c r="A10" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B10" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="n">
-        <v>4.97222222181713</v>
+      <c r="B11" s="19" t="n">
+        <v>5.30555555515046</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="6" t="n">
         <f aca="false">SUM(C5:C9)</f>
-        <v>-0.118055555289352</v>
+        <v>-0.451388888622685</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Calc" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Calc2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pivot Table_Calc_1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <pivotCaches>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">Start</t>
   </si>
@@ -42,10 +42,7 @@
     <t xml:space="preserve">Time:</t>
   </si>
   <si>
-    <t xml:space="preserve">- multiple -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum - Time worked*</t>
+    <t xml:space="preserve">Sum - Time worked</t>
   </si>
   <si>
     <t xml:space="preserve">Total Result</t>
@@ -121,13 +118,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
       <top style="medium"/>
@@ -144,6 +134,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -227,7 +224,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,31 +253,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,7 +325,7 @@
         <n v="0.0833333333333333"/>
         <n v="0.125"/>
         <n v="0.166666666597222"/>
-        <n v="0.166666666666667"/>
+        <n v="0.166666666701389"/>
         <n v="0.208333333298611"/>
         <n v="0.229166666701389"/>
         <n v="0.25"/>
@@ -462,12 +447,12 @@
     <x v="5"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
@@ -2166,32 +2151,9 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField axis="axisPage" dataField="1" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
       <items count="7">
         <item x="0"/>
@@ -2207,11 +2169,8 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Sum - Time worked*" fld="0" subtotal="sum" numFmtId="166"/>
+    <dataField name="Sum - Time worked" fld="0" subtotal="sum" numFmtId="166"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -2222,13 +2181,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="2" sqref="D14 L16 B24"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2417,6 +2376,22 @@
       </c>
       <c r="B23" s="3" t="n">
         <v>45237.625</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>45238.4583333333</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45238.625</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>45239.5</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>45239.625</v>
       </c>
     </row>
   </sheetData>
@@ -2437,11 +2412,11 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="2" sqref="D14 L16 E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2473,7 +2448,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="4" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>5.38888888848379</v>
+        <v>5.68055555521991</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2699,7 +2674,7 @@
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
         <f aca="false">Times!B23-Times!A23</f>
-        <v>0.166666666666667</v>
+        <v>0.166666666701389</v>
       </c>
       <c r="B23" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A23,1)</f>
@@ -2709,21 +2684,21 @@
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
         <f aca="false">Times!B24-Times!A24</f>
-        <v>0</v>
+        <v>0.166666666701389</v>
       </c>
       <c r="B24" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A24,1)</f>
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
         <f aca="false">Times!B25-Times!A25</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="B25" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A25,1)</f>
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6972,124 +6947,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="D14 L16"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="9" t="n">
+      <c r="A2" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>0.895833333194444</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>0.791666666666667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
+      <c r="A3" s="12" t="n">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>1.50694444439815</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <f aca="false">$D$2-B3</f>
+        <v>-0.715277777731482</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.895833333194444</v>
-      </c>
-      <c r="C4" s="14"/>
+        <v>0.583333333298611</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <f aca="false">$D$2-B4</f>
+        <v>0.208333333368056</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
-        <v>41</v>
-      </c>
-      <c r="B5" s="16" t="n">
-        <v>1.50694444439815</v>
-      </c>
-      <c r="C5" s="14" t="n">
-        <f aca="false">$E$2-B5</f>
-        <v>-0.715277777731482</v>
+      <c r="A5" s="12" t="n">
+        <v>43</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>1.06944444439815</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <f aca="false">$D$2-B5</f>
+        <v>-0.277777777731481</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
-        <v>42</v>
-      </c>
-      <c r="B6" s="16" t="n">
-        <v>0.583333333298611</v>
-      </c>
-      <c r="C6" s="14" t="n">
-        <f aca="false">$E$2-B6</f>
-        <v>0.208333333368056</v>
+      <c r="A6" s="12" t="n">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>0.916666666527777</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <f aca="false">$D$2-B6</f>
+        <v>-0.124999999861111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
-        <v>43</v>
-      </c>
-      <c r="B7" s="16" t="n">
-        <v>1.06944444439815</v>
-      </c>
-      <c r="C7" s="14" t="n">
-        <f aca="false">$E$2-B7</f>
-        <v>-0.277777777731481</v>
+      <c r="A7" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>0.708333333402778</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <f aca="false">$D$2-B7</f>
+        <v>0.0833333332638889</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
-        <v>44</v>
-      </c>
-      <c r="B8" s="16" t="n">
-        <v>0.833333333194444</v>
-      </c>
-      <c r="C8" s="14" t="n">
-        <f aca="false">$E$2-B8</f>
-        <v>-0.0416666665277778</v>
-      </c>
+      <c r="A8" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
-        <v>45</v>
+      <c r="A9" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="16" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <f aca="false">$E$2-B9</f>
-        <v>0.375</v>
-      </c>
+        <v>5.68055555521991</v>
+      </c>
+      <c r="C9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
-        <v>52</v>
-      </c>
-      <c r="B10" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19" t="n">
-        <v>5.30555555515046</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="6" t="n">
-        <f aca="false">SUM(C5:C9)</f>
-        <v>-0.451388888622685</v>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="6" t="n">
+        <f aca="false">SUM(C3:C11)</f>
+        <v>-0.82638888869213</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -241,11 +241,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,7 +318,7 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.375" count="20">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="21">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
@@ -339,16 +339,18 @@
         <n v="0.347222222199074"/>
         <n v="0.361111111099537"/>
         <n v="0.375"/>
+        <n v="0.4375"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Week" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="7">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="8">
         <n v="40"/>
         <n v="41"/>
         <n v="42"/>
         <n v="43"/>
         <n v="44"/>
         <n v="45"/>
+        <n v="46"/>
         <n v="52"/>
       </sharedItems>
     </cacheField>
@@ -455,1707 +457,1707 @@
     <x v="5"/>
   </r>
   <r>
-    <x v="0"/>
+    <x v="20"/>
     <x v="6"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2163,6 +2165,7 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2181,13 +2184,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2216,7 +2219,6 @@
       <c r="B3" s="3" t="n">
         <v>45202.625</v>
       </c>
-      <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
@@ -2238,7 +2240,7 @@
       <c r="A6" s="3" t="n">
         <v>45208.3958333333</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>45208.7083333333</v>
       </c>
     </row>
@@ -2246,7 +2248,7 @@
       <c r="A7" s="3" t="n">
         <v>45209.4375</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>45209.7222222222</v>
       </c>
     </row>
@@ -2254,7 +2256,7 @@
       <c r="A8" s="3" t="n">
         <v>45210.3888888889</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>45210.75</v>
       </c>
     </row>
@@ -2262,7 +2264,7 @@
       <c r="A9" s="3" t="n">
         <v>45211.3888888889</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>45211.6875</v>
       </c>
     </row>
@@ -2270,7 +2272,7 @@
       <c r="A10" s="3" t="n">
         <v>45212.4722222222</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>45212.7222222222</v>
       </c>
     </row>
@@ -2278,7 +2280,7 @@
       <c r="A11" s="3" t="n">
         <v>45215.3472222222</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>45215.7222222222</v>
       </c>
     </row>
@@ -2286,7 +2288,7 @@
       <c r="A12" s="3" t="n">
         <v>45216.5138888889</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="4" t="n">
         <v>45216.5972222222</v>
       </c>
     </row>
@@ -2294,7 +2296,7 @@
       <c r="A13" s="3" t="n">
         <v>45218.5138888889</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="4" t="n">
         <v>45218.6388888889</v>
       </c>
     </row>
@@ -2302,7 +2304,7 @@
       <c r="A14" s="3" t="n">
         <v>45222.3402777778</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="4" t="n">
         <v>45222.6805555556</v>
       </c>
     </row>
@@ -2310,7 +2312,7 @@
       <c r="A15" s="3" t="n">
         <v>45223.3888888889</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="4" t="n">
         <v>45223.7083333333</v>
       </c>
     </row>
@@ -2318,7 +2320,7 @@
       <c r="A16" s="3" t="n">
         <v>45224.3611111111</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="4" t="n">
         <v>45224.7083333333</v>
       </c>
     </row>
@@ -2326,7 +2328,7 @@
       <c r="A17" s="3" t="n">
         <v>45226.5208333333</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="4" t="n">
         <v>45226.5833333333</v>
       </c>
     </row>
@@ -2334,7 +2336,7 @@
       <c r="A18" s="3" t="n">
         <v>45229.5833333333</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="4" t="n">
         <v>45229.6666666667</v>
       </c>
     </row>
@@ -2342,7 +2344,7 @@
       <c r="A19" s="3" t="n">
         <v>45230.4166666667</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="4" t="n">
         <v>45230.625</v>
       </c>
     </row>
@@ -2350,7 +2352,7 @@
       <c r="A20" s="3" t="n">
         <v>45232.4166666667</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="4" t="n">
         <v>45232.7222222222</v>
       </c>
     </row>
@@ -2358,7 +2360,7 @@
       <c r="A21" s="3" t="n">
         <v>45233.4166666667</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="4" t="n">
         <v>45233.7361111111</v>
       </c>
     </row>
@@ -2392,6 +2394,14 @@
       </c>
       <c r="B25" s="3" t="n">
         <v>45239.625</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>45244.4166666667</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45244.8541666667</v>
       </c>
     </row>
   </sheetData>
@@ -2412,11 +2422,11 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2437,7 +2447,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <f aca="false">Times!B2-Times!A2</f>
         <v>0.333333333298611</v>
       </c>
@@ -2446,13 +2456,13 @@
         <v>40</v>
       </c>
       <c r="C2" s="0"/>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>5.68055555521991</v>
+        <v>6.11805555521991</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <f aca="false">Times!B3-Times!A3</f>
         <v>0.229166666701389</v>
       </c>
@@ -2462,7 +2472,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <f aca="false">Times!B4-Times!A4</f>
         <v>0.166666666597222</v>
       </c>
@@ -2472,7 +2482,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <f aca="false">Times!B5-Times!A5</f>
         <v>0.166666666597222</v>
       </c>
@@ -2482,7 +2492,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <f aca="false">Times!B6-Times!A6</f>
         <v>0.3125</v>
       </c>
@@ -2493,7 +2503,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <f aca="false">Times!B7-Times!A7</f>
         <v>0.284722222199074</v>
       </c>
@@ -2503,7 +2513,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <f aca="false">Times!B8-Times!A8</f>
         <v>0.361111111099537</v>
       </c>
@@ -2511,13 +2521,13 @@
         <f aca="false">WEEKNUM(Times!A8,1)</f>
         <v>41</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">SUM(A6:A10)</f>
         <v>1.50694444439815</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <f aca="false">Times!B9-Times!A9</f>
         <v>0.298611111099537</v>
       </c>
@@ -2525,13 +2535,13 @@
         <f aca="false">WEEKNUM(Times!A9,1)</f>
         <v>41</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <f aca="false">SUM(A11:A13)</f>
         <v>0.583333333298611</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <f aca="false">Times!B10-Times!A10</f>
         <v>0.25</v>
       </c>
@@ -2539,13 +2549,13 @@
         <f aca="false">WEEKNUM(Times!A10,1)</f>
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <f aca="false">SUM(A14:A17)</f>
         <v>1.06944444439815</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <f aca="false">Times!B11-Times!A11</f>
         <v>0.375</v>
       </c>
@@ -2553,13 +2563,13 @@
         <f aca="false">WEEKNUM(Times!A11,1)</f>
         <v>42</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <f aca="false">SUM(A18:A21)</f>
         <v>0.916666666527778</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <f aca="false">Times!B12-Times!A12</f>
         <v>0.0833333332986111</v>
       </c>
@@ -2569,7 +2579,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <f aca="false">Times!B13-Times!A13</f>
         <v>0.125</v>
       </c>
@@ -2579,7 +2589,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <f aca="false">Times!B14-Times!A14</f>
         <v>0.340277777800926</v>
       </c>
@@ -2589,7 +2599,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <f aca="false">Times!B15-Times!A15</f>
         <v>0.319444444398148</v>
       </c>
@@ -2599,7 +2609,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <f aca="false">Times!B16-Times!A16</f>
         <v>0.347222222199074</v>
       </c>
@@ -2609,7 +2619,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <f aca="false">Times!B17-Times!A17</f>
         <v>0.0625</v>
       </c>
@@ -2619,7 +2629,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>0.0833333333333333</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -2628,7 +2638,7 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="5" t="n">
         <f aca="false">Times!B19-Times!A19</f>
         <v>0.208333333298611</v>
       </c>
@@ -2642,7 +2652,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <f aca="false">Times!B20-Times!A20</f>
         <v>0.305555555497685</v>
       </c>
@@ -2652,7 +2662,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <f aca="false">Times!B21-Times!A21</f>
         <v>0.319444444398148</v>
       </c>
@@ -2662,7 +2672,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <f aca="false">Times!B22-Times!A22</f>
         <v>0.25</v>
       </c>
@@ -2672,7 +2682,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <f aca="false">Times!B23-Times!A23</f>
         <v>0.166666666701389</v>
       </c>
@@ -2682,7 +2692,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <f aca="false">Times!B24-Times!A24</f>
         <v>0.166666666701389</v>
       </c>
@@ -2692,7 +2702,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <f aca="false">Times!B25-Times!A25</f>
         <v>0.125</v>
       </c>
@@ -2702,17 +2712,17 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="5" t="n">
         <f aca="false">Times!B26-Times!A26</f>
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A26,1)</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <f aca="false">Times!B27-Times!A27</f>
         <v>0</v>
       </c>
@@ -2722,7 +2732,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <f aca="false">Times!B28-Times!A28</f>
         <v>0</v>
       </c>
@@ -2732,7 +2742,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <f aca="false">Times!B29-Times!A29</f>
         <v>0</v>
       </c>
@@ -2742,7 +2752,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <f aca="false">Times!B30-Times!A30</f>
         <v>0</v>
       </c>
@@ -2752,7 +2762,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <f aca="false">Times!B31-Times!A31</f>
         <v>0</v>
       </c>
@@ -2762,7 +2772,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="5" t="n">
         <f aca="false">Times!B32-Times!A32</f>
         <v>0</v>
       </c>
@@ -2772,7 +2782,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="5" t="n">
         <f aca="false">Times!B33-Times!A33</f>
         <v>0</v>
       </c>
@@ -2782,7 +2792,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="5" t="n">
         <f aca="false">Times!B34-Times!A34</f>
         <v>0</v>
       </c>
@@ -2792,7 +2802,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="5" t="n">
         <f aca="false">Times!B35-Times!A35</f>
         <v>0</v>
       </c>
@@ -2802,7 +2812,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="5" t="n">
         <f aca="false">Times!B36-Times!A36</f>
         <v>0</v>
       </c>
@@ -2812,7 +2822,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <f aca="false">Times!B37-Times!A37</f>
         <v>0</v>
       </c>
@@ -2822,7 +2832,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <f aca="false">Times!B38-Times!A38</f>
         <v>0</v>
       </c>
@@ -2832,7 +2842,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="5" t="n">
         <f aca="false">Times!B39-Times!A39</f>
         <v>0</v>
       </c>
@@ -2842,7 +2852,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="5" t="n">
         <f aca="false">Times!B40-Times!A40</f>
         <v>0</v>
       </c>
@@ -6949,11 +6959,11 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -6970,6 +6980,10 @@
       <c r="B2" s="10" t="n">
         <v>0.895833333194444</v>
       </c>
+      <c r="C2" s="11" t="n">
+        <f aca="false">$D$2-B2</f>
+        <v>-0.104166666527778</v>
+      </c>
       <c r="D2" s="11" t="n">
         <v>0.791666666666667</v>
       </c>
@@ -7015,7 +7029,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.916666666527777</v>
+        <v>0.916666666527778</v>
       </c>
       <c r="C6" s="11" t="n">
         <f aca="false">$D$2-B6</f>
@@ -7036,23 +7050,32 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <f aca="false">$D$2-B8</f>
+        <v>0.354166666666667</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16" t="n">
-        <v>5.68055555521991</v>
-      </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="16" t="n">
+        <v>6.11805555521991</v>
+      </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7063,8 +7086,8 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="6" t="n">
-        <f aca="false">SUM(C3:C11)</f>
-        <v>-0.82638888869213</v>
+        <f aca="false">SUM(C2:C11)</f>
+        <v>-0.576388888553241</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -318,7 +318,7 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="21">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="23">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
@@ -329,12 +329,14 @@
         <n v="0.208333333298611"/>
         <n v="0.229166666701389"/>
         <n v="0.25"/>
+        <n v="0.270833333333333"/>
         <n v="0.284722222199074"/>
         <n v="0.298611111099537"/>
         <n v="0.305555555497685"/>
         <n v="0.3125"/>
         <n v="0.319444444398148"/>
         <n v="0.333333333298611"/>
+        <n v="0.340277777777778"/>
         <n v="0.340277777800926"/>
         <n v="0.347222222199074"/>
         <n v="0.361111111099537"/>
@@ -361,7 +363,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="15"/>
+    <x v="16"/>
     <x v="0"/>
   </r>
   <r>
@@ -377,15 +379,7 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="18"/>
+    <x v="14"/>
     <x v="1"/>
   </r>
   <r>
@@ -393,11 +387,19 @@
     <x v="1"/>
   </r>
   <r>
+    <x v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="9"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="19"/>
+    <x v="21"/>
     <x v="2"/>
   </r>
   <r>
@@ -409,15 +411,15 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="16"/>
+    <x v="18"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="14"/>
+    <x v="15"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="17"/>
+    <x v="19"/>
     <x v="3"/>
   </r>
   <r>
@@ -433,11 +435,11 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="13"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="14"/>
+    <x v="15"/>
     <x v="4"/>
   </r>
   <r>
@@ -457,16 +459,16 @@
     <x v="5"/>
   </r>
   <r>
-    <x v="20"/>
+    <x v="22"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
@@ -2184,13 +2186,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2402,6 +2404,22 @@
       </c>
       <c r="B26" s="3" t="n">
         <v>45244.8541666667</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>45245.375</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>45245.6458333333</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>45246.375</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>45246.7152777778</v>
       </c>
     </row>
   </sheetData>
@@ -2422,11 +2440,11 @@
   </sheetPr>
   <dimension ref="A1:E448"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2458,7 +2476,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="5" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>6.11805555521991</v>
+        <v>6.7291666662963</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2724,21 +2742,21 @@
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <f aca="false">Times!B27-Times!A27</f>
-        <v>0</v>
+        <v>0.270833333298611</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A27,1)</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <f aca="false">Times!B28-Times!A28</f>
-        <v>0</v>
+        <v>0.340277777777778</v>
       </c>
       <c r="B28" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A28,1)</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6960,10 +6978,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -7029,7 +7047,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.916666666527778</v>
+        <v>0.916666666527777</v>
       </c>
       <c r="C6" s="11" t="n">
         <f aca="false">$D$2-B6</f>
@@ -7053,11 +7071,11 @@
         <v>46</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.4375</v>
+        <v>1.04861111111111</v>
       </c>
       <c r="C8" s="11" t="n">
         <f aca="false">$D$2-B8</f>
-        <v>0.354166666666667</v>
+        <v>-0.256944444444444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,7 +7092,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="n">
-        <v>6.11805555521991</v>
+        <v>6.72916666633102</v>
       </c>
       <c r="C10" s="11"/>
     </row>
@@ -7087,7 +7105,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="6" t="n">
         <f aca="false">SUM(C2:C11)</f>
-        <v>-0.576388888553241</v>
+        <v>-1.18749999966435</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -329,7 +329,7 @@
         <n v="0.208333333298611"/>
         <n v="0.229166666701389"/>
         <n v="0.25"/>
-        <n v="0.270833333333333"/>
+        <n v="0.270833333298611"/>
         <n v="0.284722222199074"/>
         <n v="0.298611111099537"/>
         <n v="0.305555555497685"/>
@@ -2186,13 +2186,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2420,6 +2420,14 @@
       </c>
       <c r="B28" s="3" t="n">
         <v>45246.7152777778</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>45247.625</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>45247.7152777778</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2452,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2476,7 +2484,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="5" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>6.7291666662963</v>
+        <v>6.81944444407407</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2762,11 +2770,11 @@
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <f aca="false">Times!B29-Times!A29</f>
-        <v>0</v>
+        <v>0.0902777777777778</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A29,1)</f>
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6981,7 +6989,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -7071,7 +7079,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>1.04861111111111</v>
+        <v>1.04861111107639</v>
       </c>
       <c r="C8" s="11" t="n">
         <f aca="false">$D$2-B8</f>
@@ -7092,7 +7100,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="n">
-        <v>6.72916666633102</v>
+        <v>6.7291666662963</v>
       </c>
       <c r="C10" s="11"/>
     </row>

--- a/work.xlsx
+++ b/work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" state="visible" r:id="rId2"/>
@@ -318,11 +318,12 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="23">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="24">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
+        <n v="0.0902777777777778"/>
         <n v="0.125"/>
         <n v="0.166666666597222"/>
         <n v="0.166666666701389"/>
@@ -345,7 +346,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Week" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="8">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="40" maxValue="52" count="9">
         <n v="40"/>
         <n v="41"/>
         <n v="42"/>
@@ -353,6 +354,7 @@
         <n v="44"/>
         <n v="45"/>
         <n v="46"/>
+        <n v="47"/>
         <n v="52"/>
       </sharedItems>
     </cacheField>
@@ -363,31 +365,23 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
-    <x v="16"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="20"/>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
     <x v="1"/>
   </r>
   <r>
@@ -395,11 +389,19 @@
     <x v="1"/>
   </r>
   <r>
-    <x v="9"/>
+    <x v="21"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="21"/>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
     <x v="2"/>
   </r>
   <r>
@@ -407,22 +409,22 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="5"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="3"/>
   </r>
   <r>
     <x v="19"/>
     <x v="3"/>
   </r>
   <r>
+    <x v="16"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="3"/>
   </r>
@@ -431,1735 +433,1735 @@
     <x v="4"/>
   </r>
   <r>
+    <x v="8"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="6"/>
+  </r>
+  <r>
     <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="5"/>
-  </r>
-  <r>
     <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
     <x v="7"/>
   </r>
   <r>
     <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="8">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2168,6 +2170,7 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
+        <item x="8"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2186,13 +2189,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2428,6 +2431,14 @@
       </c>
       <c r="B29" s="3" t="n">
         <v>45247.7152777778</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>45249.6666666667</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>45249.75</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2463,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2484,7 +2495,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="5" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>6.81944444407407</v>
+        <v>6.9027777774537</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2760,7 +2771,7 @@
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <f aca="false">Times!B28-Times!A28</f>
-        <v>0.340277777777778</v>
+        <v>0.340277777800926</v>
       </c>
       <c r="B28" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A28,1)</f>
@@ -2770,7 +2781,7 @@
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <f aca="false">Times!B29-Times!A29</f>
-        <v>0.0902777777777778</v>
+        <v>0.0902777778009259</v>
       </c>
       <c r="B29" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A29,1)</f>
@@ -2780,11 +2791,11 @@
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <f aca="false">Times!B30-Times!A30</f>
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="B30" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A30,1)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6985,11 +6996,11 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -7079,32 +7090,41 @@
         <v>46</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>1.04861111107639</v>
+        <v>1.13888888885417</v>
       </c>
       <c r="C8" s="11" t="n">
         <f aca="false">$D$2-B8</f>
-        <v>-0.256944444444444</v>
+        <v>-0.3472222221875</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <f aca="false">$D$2-B9</f>
+        <v>0.708333333333333</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="12" t="n">
+        <v>52</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="n">
-        <v>6.7291666662963</v>
-      </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="16" t="n">
+        <v>6.90277777740741</v>
+      </c>
       <c r="C11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,7 +7133,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="6" t="n">
         <f aca="false">SUM(C2:C11)</f>
-        <v>-1.18749999966435</v>
+        <v>-0.569444444074074</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -318,18 +318,20 @@
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Time worked" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="24">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.4375" count="25">
         <n v="0"/>
         <n v="0.0625"/>
         <n v="0.0833333332986111"/>
         <n v="0.0833333333333333"/>
-        <n v="0.0902777777777778"/>
+        <n v="0.0902777778009259"/>
         <n v="0.125"/>
         <n v="0.166666666597222"/>
         <n v="0.166666666701389"/>
         <n v="0.208333333298611"/>
         <n v="0.229166666701389"/>
+        <n v="0.236111111111111"/>
         <n v="0.25"/>
+        <n v="0.260416666666667"/>
         <n v="0.270833333298611"/>
         <n v="0.284722222199074"/>
         <n v="0.298611111099537"/>
@@ -337,7 +339,6 @@
         <n v="0.3125"/>
         <n v="0.319444444398148"/>
         <n v="0.333333333298611"/>
-        <n v="0.340277777777778"/>
         <n v="0.340277777800926"/>
         <n v="0.347222222199074"/>
         <n v="0.361111111099537"/>
@@ -365,43 +366,43 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="447">
   <r>
+    <x v="19"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="17"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="15"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="12"/>
+    <x v="11"/>
     <x v="1"/>
   </r>
   <r>
-    <x v="21"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="22"/>
+    <x v="23"/>
     <x v="2"/>
   </r>
   <r>
@@ -413,18 +414,18 @@
     <x v="2"/>
   </r>
   <r>
-    <x v="19"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="3"/>
-  </r>
-  <r>
     <x v="20"/>
     <x v="3"/>
   </r>
   <r>
+    <x v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="3"/>
   </r>
@@ -437,15 +438,15 @@
     <x v="4"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="4"/>
-  </r>
-  <r>
     <x v="16"/>
     <x v="4"/>
   </r>
   <r>
-    <x v="10"/>
+    <x v="18"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
     <x v="5"/>
   </r>
   <r>
@@ -461,15 +462,15 @@
     <x v="5"/>
   </r>
   <r>
-    <x v="23"/>
+    <x v="24"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="11"/>
+    <x v="13"/>
     <x v="6"/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="20"/>
     <x v="6"/>
   </r>
   <r>
@@ -481,12 +482,12 @@
     <x v="7"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="8"/>
+    <x v="10"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -2189,13 +2190,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2439,6 +2440,22 @@
       </c>
       <c r="B30" s="3" t="n">
         <v>45249.75</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>45250.4375</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>45250.6736111111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>45251.4375</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>45251.6979166667</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2480,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2495,7 +2512,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="5" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>6.9027777774537</v>
+        <v>7.39930555523148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2801,21 +2818,21 @@
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <f aca="false">Times!B31-Times!A31</f>
-        <v>0</v>
+        <v>0.236111111111111</v>
       </c>
       <c r="B31" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A31,1)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <f aca="false">Times!B32-Times!A32</f>
-        <v>0</v>
+        <v>0.260416666666667</v>
       </c>
       <c r="B32" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A32,1)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6997,10 +7014,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -7090,11 +7107,11 @@
         <v>46</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>1.13888888885417</v>
+        <v>1.13888888890046</v>
       </c>
       <c r="C8" s="11" t="n">
         <f aca="false">$D$2-B8</f>
-        <v>-0.3472222221875</v>
+        <v>-0.347222222233796</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7102,11 +7119,11 @@
         <v>47</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.579861111111111</v>
       </c>
       <c r="C9" s="11" t="n">
         <f aca="false">$D$2-B9</f>
-        <v>0.708333333333333</v>
+        <v>0.211805555555556</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,7 +7140,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="16" t="n">
-        <v>6.90277777740741</v>
+        <v>7.39930555523148</v>
       </c>
       <c r="C11" s="11"/>
     </row>
@@ -7133,7 +7150,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="6" t="n">
         <f aca="false">SUM(C2:C11)</f>
-        <v>-0.569444444074074</v>
+        <v>-1.06597222189815</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -490,8 +490,8 @@
     <x v="7"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="8"/>
+    <x v="11"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="0"/>
@@ -2190,13 +2190,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.45"/>
@@ -2456,6 +2456,14 @@
       </c>
       <c r="B32" s="3" t="n">
         <v>45251.6979166667</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>45252.4375</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>45252.6875</v>
       </c>
     </row>
   </sheetData>
@@ -2480,7 +2488,7 @@
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.26"/>
@@ -2512,7 +2520,7 @@
       <c r="C2" s="0"/>
       <c r="E2" s="5" t="n">
         <f aca="false">SUM(A2:A1048576)</f>
-        <v>7.39930555523148</v>
+        <v>7.64930555523148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2838,11 +2846,11 @@
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <f aca="false">Times!B33-Times!A33</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B33" s="1" t="n">
         <f aca="false">WEEKNUM(Times!A33,1)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7014,10 +7022,10 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
@@ -7119,11 +7127,11 @@
         <v>47</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.579861111111111</v>
+        <v>0.829861111111111</v>
       </c>
       <c r="C9" s="11" t="n">
         <f aca="false">$D$2-B9</f>
-        <v>0.211805555555556</v>
+        <v>-0.0381944444444444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7140,7 +7148,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="16" t="n">
-        <v>7.39930555523148</v>
+        <v>7.64930555523148</v>
       </c>
       <c r="C11" s="11"/>
     </row>
@@ -7150,7 +7158,7 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="6" t="n">
         <f aca="false">SUM(C2:C11)</f>
-        <v>-1.06597222189815</v>
+        <v>-1.31597222189815</v>
       </c>
     </row>
   </sheetData>
